--- a/src/main/resources/excel/statistic/dailyStatsItems.xlsx
+++ b/src/main/resources/excel/statistic/dailyStatsItems.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$169</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="590">
   <si>
     <t>№</t>
   </si>
@@ -1316,33 +1319,6 @@
     <t>MMCHandledPatentAmountPctTotalYear</t>
   </si>
   <si>
-    <t>Не выдано патентов (патенты лежат на складе ММЦ)</t>
-  </si>
-  <si>
-    <t>Проставляется вручную (MMCUnhandledPatentAmount)</t>
-  </si>
-  <si>
-    <t>MMCUnhandledPatentAmount</t>
-  </si>
-  <si>
-    <t>Проставляется вручную (Less10DaysMMCUnhandledPatentAmountTotalYear)</t>
-  </si>
-  <si>
-    <t>Less10DaysMMCUnhandledPatentAmountTotalYear</t>
-  </si>
-  <si>
-    <t>Проставляется вручную (10DaysMMCUnhandledPatentAmountTotalYear)</t>
-  </si>
-  <si>
-    <t>10DaysMMCUnhandledPatentAmountTotalYear</t>
-  </si>
-  <si>
-    <t>Проставляется вручную (More30DaysMMCUnhandledPatentAmountTotalYear)</t>
-  </si>
-  <si>
-    <t>More30DaysMMCUnhandledPatentAmountTotalYear</t>
-  </si>
-  <si>
     <t>Рассчитанное по заявлениям, для которых за отчетный период был проставлен индикатор "Патент выдан", среднее время в днях между тем, как для заявления были установлены индикаторы "Данные приняты от ИГ" и "Патент выдан". (PatentIssuanceAvgTime)</t>
   </si>
   <si>
@@ -1808,15 +1784,6 @@
     <t>Разница показателей №122- №134 полученных за дату 31 декабря прошлого года (NoPrintPatentAmountTotalYear=AgreementAmountTotalYear- PrintPatentAmountTotalYear)</t>
   </si>
   <si>
-    <t>- готовых к выдаче менее 10 дней назад</t>
-  </si>
-  <si>
-    <t>- готовых к выдаче от 10 до 30 дней назад</t>
-  </si>
-  <si>
-    <t>- готовых к выдаче более 30 дней назад</t>
-  </si>
-  <si>
     <t>Разница показателей №135- №155 (UnhandledPatentAmountTotalYear = PrintPatentAmountTotalYear- HandledPatentAmountTotalYear)</t>
   </si>
   <si>
@@ -1839,6 +1806,12 @@
   </si>
   <si>
     <t>% выданных патентов от общего числа оформленных патентов</t>
+  </si>
+  <si>
+    <t>Value Year</t>
+  </si>
+  <si>
+    <t>Value Prev Year</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1987,19 +1960,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2015,19 +1975,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2056,7 +2003,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2177,39 +2124,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2217,25 +2133,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2254,23 +2170,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3048,11 +2952,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:R169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3067,14 +2969,14 @@
     <col min="11" max="11" width="13.42578125" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="67" customWidth="1"/>
+    <col min="15" max="15" width="50" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="56" customWidth="1"/>
     <col min="17" max="16384" width="34.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3100,8 +3002,8 @@
       <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>556</v>
+      <c r="J1" s="51" t="s">
+        <v>547</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>8</v>
@@ -3121,10 +3023,16 @@
       <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>495</v>
+      <c r="Q1" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>486</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -3144,7 +3052,7 @@
       <c r="I2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="52">
         <v>2</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -3165,14 +3073,20 @@
       <c r="P2" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="Q2" s="7">
+        <v>1500</v>
+      </c>
+      <c r="R2" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
       <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -3186,7 +3100,7 @@
       <c r="I3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="52">
         <v>2</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -3207,14 +3121,20 @@
       <c r="P3" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="Q3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R3" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
       <c r="B4" s="12">
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -3228,7 +3148,7 @@
       <c r="I4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="52">
         <v>2</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -3249,14 +3169,20 @@
       <c r="P4" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="Q4" s="7">
+        <v>200</v>
+      </c>
+      <c r="R4" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
       <c r="B5" s="12">
         <v>4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -3270,7 +3196,7 @@
       <c r="I5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="52">
         <v>2</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -3291,9 +3217,15 @@
       <c r="P5" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="Q5" s="7">
+        <v>300</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -3312,7 +3244,7 @@
       <c r="I6" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="52">
         <v>2</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -3333,9 +3265,11 @@
       <c r="P6" s="7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -3354,7 +3288,7 @@
       <c r="I7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="52">
         <v>2</v>
       </c>
       <c r="K7" s="15"/>
@@ -3373,14 +3307,20 @@
       <c r="P7" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="Q7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="R7" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
       <c r="B8" s="12">
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -3394,7 +3334,7 @@
       <c r="I8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="52">
         <v>2</v>
       </c>
       <c r="K8" s="15"/>
@@ -3413,14 +3353,20 @@
       <c r="P8" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="Q8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
       <c r="B9" s="12">
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -3434,7 +3380,7 @@
       <c r="I9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="52">
         <v>2</v>
       </c>
       <c r="K9" s="15"/>
@@ -3453,14 +3399,20 @@
       <c r="P9" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="Q9" s="7">
+        <v>200</v>
+      </c>
+      <c r="R9" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
       <c r="B10" s="12">
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -3474,7 +3426,7 @@
       <c r="I10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="52">
         <v>2</v>
       </c>
       <c r="K10" s="15"/>
@@ -3493,14 +3445,20 @@
       <c r="P10" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="Q10" s="7">
+        <v>300</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -3514,7 +3472,7 @@
       <c r="I11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="52">
         <v>2</v>
       </c>
       <c r="K11" s="15"/>
@@ -3533,9 +3491,15 @@
       <c r="P11" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="Q11" s="7">
+        <v>5000</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -3554,7 +3518,7 @@
       <c r="I12" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="52">
         <v>2</v>
       </c>
       <c r="K12" s="15"/>
@@ -3570,12 +3534,12 @@
       <c r="O12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -3594,7 +3558,7 @@
       <c r="I13" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="52">
         <v>2</v>
       </c>
       <c r="K13" s="15"/>
@@ -3613,14 +3577,20 @@
       <c r="P13" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="Q13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
       <c r="B14" s="12">
         <v>13</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -3634,7 +3604,7 @@
       <c r="I14" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="52">
         <v>2</v>
       </c>
       <c r="K14" s="15"/>
@@ -3653,14 +3623,20 @@
       <c r="P14" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="Q14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
       <c r="B15" s="12">
         <v>14</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -3674,7 +3650,7 @@
       <c r="I15" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="52">
         <v>2</v>
       </c>
       <c r="K15" s="15"/>
@@ -3693,14 +3669,20 @@
       <c r="P15" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="Q15" s="7">
+        <v>200</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
       <c r="B16" s="12">
         <v>15</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -3714,7 +3696,7 @@
       <c r="I16" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="53">
         <v>2</v>
       </c>
       <c r="K16" s="15"/>
@@ -3733,14 +3715,20 @@
       <c r="P16" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="Q16" s="7">
+        <v>300</v>
+      </c>
+      <c r="R16" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -3754,7 +3742,7 @@
       <c r="I17" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="53">
         <v>2</v>
       </c>
       <c r="K17" s="15"/>
@@ -3773,9 +3761,15 @@
       <c r="P17" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="Q17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
@@ -3794,7 +3788,7 @@
       <c r="I18" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="52">
         <v>2</v>
       </c>
       <c r="K18" s="15"/>
@@ -3813,14 +3807,20 @@
       <c r="P18" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="Q18" s="7">
+        <v>1500</v>
+      </c>
+      <c r="R18" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
       <c r="B19" s="12">
         <v>18</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3834,7 +3834,7 @@
       <c r="I19" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="52">
         <v>2</v>
       </c>
       <c r="K19" s="15"/>
@@ -3853,14 +3853,20 @@
       <c r="P19" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="Q19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R19" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -3874,7 +3880,7 @@
       <c r="I20" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="52">
         <v>2</v>
       </c>
       <c r="K20" s="15"/>
@@ -3893,9 +3899,15 @@
       <c r="P20" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="Q20" s="7">
+        <v>200</v>
+      </c>
+      <c r="R20" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
       <c r="B21" s="12">
         <v>20</v>
       </c>
@@ -3914,7 +3926,7 @@
       <c r="I21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="52">
         <v>2</v>
       </c>
       <c r="K21" s="15" t="s">
@@ -3935,14 +3947,20 @@
       <c r="P21" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="Q21" s="7">
+        <v>300</v>
+      </c>
+      <c r="R21" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
       <c r="B22" s="12">
         <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -3956,7 +3974,7 @@
       <c r="I22" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="52">
         <v>2</v>
       </c>
       <c r="K22" s="15"/>
@@ -3975,14 +3993,20 @@
       <c r="P22" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="Q22" s="7">
+        <v>5000</v>
+      </c>
+      <c r="R22" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
       <c r="B23" s="12">
         <v>22</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -3996,7 +4020,7 @@
       <c r="I23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="52">
         <v>2</v>
       </c>
       <c r="K23" s="15"/>
@@ -4015,14 +4039,20 @@
       <c r="P23" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="Q23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R23" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
       <c r="B24" s="12">
         <v>23</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -4036,7 +4066,7 @@
       <c r="I24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="52">
         <v>2</v>
       </c>
       <c r="K24" s="15"/>
@@ -4055,14 +4085,20 @@
       <c r="P24" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="Q24" s="7">
+        <v>200</v>
+      </c>
+      <c r="R24" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
       <c r="B25" s="12">
         <v>24</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -4076,7 +4112,7 @@
       <c r="I25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="52">
         <v>2</v>
       </c>
       <c r="K25" s="15"/>
@@ -4095,14 +4131,20 @@
       <c r="P25" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="Q25" s="7">
+        <v>300</v>
+      </c>
+      <c r="R25" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
       <c r="B26" s="12">
         <v>25</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -4116,7 +4158,7 @@
       <c r="I26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="52">
         <v>2</v>
       </c>
       <c r="K26" s="15"/>
@@ -4135,9 +4177,15 @@
       <c r="P26" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="Q26" s="7">
+        <v>5000</v>
+      </c>
+      <c r="R26" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
       <c r="B27" s="12">
         <v>26</v>
       </c>
@@ -4156,7 +4204,7 @@
       <c r="I27" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="52">
         <v>2</v>
       </c>
       <c r="K27" s="15"/>
@@ -4175,9 +4223,11 @@
       <c r="P27" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
       <c r="B28" s="12">
         <v>27</v>
       </c>
@@ -4196,7 +4246,7 @@
       <c r="I28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="52">
         <v>2</v>
       </c>
       <c r="K28" s="15"/>
@@ -4215,14 +4265,16 @@
       <c r="P28" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
       <c r="B29" s="12">
         <v>28</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -4236,7 +4288,7 @@
       <c r="I29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="52">
         <v>2</v>
       </c>
       <c r="K29" s="15"/>
@@ -4255,14 +4307,16 @@
       <c r="P29" s="7">
         <v>7500</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
       <c r="B30" s="12">
         <v>29</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -4276,7 +4330,7 @@
       <c r="I30" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="52">
         <v>2</v>
       </c>
       <c r="K30" s="15"/>
@@ -4293,9 +4347,11 @@
         <v>56</v>
       </c>
       <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
       <c r="B31" s="12">
         <v>30</v>
       </c>
@@ -4314,7 +4370,7 @@
       <c r="I31" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="52">
         <v>2</v>
       </c>
       <c r="K31" s="15"/>
@@ -4333,9 +4389,15 @@
       <c r="P31" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="Q31" s="7">
+        <v>1400</v>
+      </c>
+      <c r="R31" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
       <c r="B32" s="12">
         <v>31</v>
       </c>
@@ -4354,7 +4416,7 @@
       <c r="I32" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="52">
         <v>1</v>
       </c>
       <c r="K32" s="15"/>
@@ -4373,9 +4435,11 @@
       <c r="P32" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
       <c r="B33" s="12">
         <v>32</v>
       </c>
@@ -4394,7 +4458,7 @@
       <c r="I33" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="54">
         <v>2</v>
       </c>
       <c r="K33" s="15"/>
@@ -4413,9 +4477,15 @@
       <c r="P33" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="Q33" s="7">
+        <v>700</v>
+      </c>
+      <c r="R33" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
       <c r="B34" s="12">
         <v>35</v>
       </c>
@@ -4434,7 +4504,7 @@
       <c r="I34" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="54">
         <v>2</v>
       </c>
       <c r="K34" s="15"/>
@@ -4453,9 +4523,15 @@
       <c r="P34" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="Q34" s="7">
+        <v>250</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
       <c r="B35" s="12">
         <v>36</v>
       </c>
@@ -4474,7 +4550,7 @@
       <c r="I35" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="52">
         <v>2</v>
       </c>
       <c r="K35" s="15" t="s">
@@ -4495,14 +4571,20 @@
       <c r="P35" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="Q35" s="7">
+        <v>600</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
       <c r="B36" s="12">
         <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -4516,7 +4598,7 @@
       <c r="I36" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="52">
         <v>2</v>
       </c>
       <c r="K36" s="15" t="s">
@@ -4535,9 +4617,11 @@
         <v>69</v>
       </c>
       <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
       <c r="B37" s="12">
         <v>38</v>
       </c>
@@ -4556,7 +4640,7 @@
       <c r="I37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="52">
         <v>2</v>
       </c>
       <c r="K37" s="15" t="s">
@@ -4577,9 +4661,15 @@
       <c r="P37" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="Q37" s="7">
+        <v>900</v>
+      </c>
+      <c r="R37" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
       <c r="B38" s="12">
         <v>39</v>
       </c>
@@ -4598,7 +4688,7 @@
       <c r="I38" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="52">
         <v>2</v>
       </c>
       <c r="K38" s="15"/>
@@ -4615,14 +4705,16 @@
         <v>73</v>
       </c>
       <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
       <c r="B39" s="12">
         <v>40</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="14"/>
@@ -4636,7 +4728,7 @@
       <c r="I39" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="52">
         <v>2</v>
       </c>
       <c r="K39" s="15"/>
@@ -4653,14 +4745,16 @@
         <v>74</v>
       </c>
       <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
       <c r="B40" s="12">
         <v>41</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="14"/>
@@ -4674,7 +4768,7 @@
       <c r="I40" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="52">
         <v>2</v>
       </c>
       <c r="K40" s="15"/>
@@ -4691,10 +4785,12 @@
         <v>75</v>
       </c>
       <c r="P40" s="7"/>
-    </row>
-    <row r="41" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>496</v>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>487</v>
       </c>
       <c r="B41" s="12">
         <v>42</v>
@@ -4703,7 +4799,7 @@
         <v>76</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>77</v>
@@ -4720,7 +4816,7 @@
       <c r="I41" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="52">
         <v>1</v>
       </c>
       <c r="K41" s="15" t="s">
@@ -4741,9 +4837,11 @@
       <c r="P41" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
       <c r="B42" s="12">
         <v>43</v>
       </c>
@@ -4768,7 +4866,7 @@
       <c r="I42" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J42" s="62">
+      <c r="J42" s="52">
         <v>1</v>
       </c>
       <c r="K42" s="15"/>
@@ -4787,9 +4885,11 @@
       <c r="P42" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
       <c r="B43" s="12">
         <v>44</v>
       </c>
@@ -4814,7 +4914,7 @@
       <c r="I43" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J43" s="62">
+      <c r="J43" s="52">
         <v>1</v>
       </c>
       <c r="K43" s="15"/>
@@ -4833,9 +4933,11 @@
       <c r="P43" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
       <c r="B44" s="12">
         <v>45</v>
       </c>
@@ -4860,7 +4962,7 @@
       <c r="I44" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J44" s="62">
+      <c r="J44" s="52">
         <v>1</v>
       </c>
       <c r="K44" s="15"/>
@@ -4879,9 +4981,11 @@
       <c r="P44" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
       <c r="B45" s="12">
         <v>46</v>
       </c>
@@ -4906,7 +5010,7 @@
       <c r="I45" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J45" s="62">
+      <c r="J45" s="52">
         <v>1</v>
       </c>
       <c r="K45" s="15"/>
@@ -4925,9 +5029,11 @@
       <c r="P45" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:18" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
       <c r="B46" s="12">
         <v>47</v>
       </c>
@@ -4952,7 +5058,7 @@
       <c r="I46" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J46" s="62">
+      <c r="J46" s="52">
         <v>1</v>
       </c>
       <c r="K46" s="15"/>
@@ -4971,9 +5077,11 @@
       <c r="P46" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
       <c r="B47" s="12">
         <v>48</v>
       </c>
@@ -4998,7 +5106,7 @@
       <c r="I47" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="62">
+      <c r="J47" s="52">
         <v>1</v>
       </c>
       <c r="K47" s="15"/>
@@ -5017,9 +5125,11 @@
       <c r="P47" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
       <c r="B48" s="12">
         <v>49</v>
       </c>
@@ -5044,7 +5154,7 @@
       <c r="I48" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="62">
+      <c r="J48" s="52">
         <v>1</v>
       </c>
       <c r="K48" s="15"/>
@@ -5063,9 +5173,11 @@
       <c r="P48" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
       <c r="B49" s="12">
         <v>51</v>
       </c>
@@ -5090,7 +5202,7 @@
       <c r="I49" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="62">
+      <c r="J49" s="52">
         <v>2</v>
       </c>
       <c r="K49" s="15" t="s">
@@ -5111,20 +5223,26 @@
       <c r="P49" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="225" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="Q49" s="7">
+        <v>700</v>
+      </c>
+      <c r="R49" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
       <c r="B50" s="12">
         <v>52</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>108</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
@@ -5138,7 +5256,7 @@
       <c r="I50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J50" s="62">
+      <c r="J50" s="52">
         <v>2</v>
       </c>
       <c r="K50" s="15" t="s">
@@ -5159,20 +5277,26 @@
       <c r="P50" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="Q50" s="7">
+        <v>750</v>
+      </c>
+      <c r="R50" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
       <c r="B51" s="12">
         <v>53</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>110</v>
@@ -5186,7 +5310,7 @@
       <c r="I51" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J51" s="62">
+      <c r="J51" s="52">
         <v>2</v>
       </c>
       <c r="K51" s="15" t="s">
@@ -5207,14 +5331,20 @@
       <c r="P51" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="Q51" s="7">
+        <v>450</v>
+      </c>
+      <c r="R51" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
       <c r="B52" s="12">
         <v>54</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>111</v>
@@ -5234,7 +5364,7 @@
       <c r="I52" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J52" s="62">
+      <c r="J52" s="52">
         <v>2</v>
       </c>
       <c r="K52" s="15" t="s">
@@ -5255,9 +5385,15 @@
       <c r="P52" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+      <c r="Q52" s="7">
+        <v>400</v>
+      </c>
+      <c r="R52" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
       <c r="B53" s="12">
         <v>55</v>
       </c>
@@ -5282,7 +5418,7 @@
       <c r="I53" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="62">
+      <c r="J53" s="52">
         <v>2</v>
       </c>
       <c r="K53" s="15" t="s">
@@ -5303,9 +5439,11 @@
       <c r="P53" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
       <c r="B54" s="12">
         <v>57</v>
       </c>
@@ -5330,7 +5468,7 @@
       <c r="I54" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J54" s="62">
+      <c r="J54" s="52">
         <v>2</v>
       </c>
       <c r="K54" s="15" t="s">
@@ -5351,9 +5489,15 @@
       <c r="P54" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="Q54" s="7">
+        <v>15000</v>
+      </c>
+      <c r="R54" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
       <c r="B55" s="12">
         <v>58</v>
       </c>
@@ -5378,7 +5522,7 @@
       <c r="I55" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J55" s="62">
+      <c r="J55" s="52">
         <v>2</v>
       </c>
       <c r="K55" s="15"/>
@@ -5397,14 +5541,20 @@
       <c r="P55" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="Q55" s="7">
+        <v>15000</v>
+      </c>
+      <c r="R55" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
       <c r="B56" s="12">
         <v>59</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>127</v>
@@ -5424,7 +5574,7 @@
       <c r="I56" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="62">
+      <c r="J56" s="52">
         <v>2</v>
       </c>
       <c r="K56" s="15"/>
@@ -5443,14 +5593,20 @@
       <c r="P56" s="7">
         <v>750</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="Q56" s="7">
+        <v>7500</v>
+      </c>
+      <c r="R56" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
       <c r="B57" s="12">
         <v>60</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>131</v>
@@ -5470,7 +5626,7 @@
       <c r="I57" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J57" s="62">
+      <c r="J57" s="52">
         <v>2</v>
       </c>
       <c r="K57" s="15"/>
@@ -5489,9 +5645,15 @@
       <c r="P57" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+      <c r="Q57" s="7">
+        <v>1500</v>
+      </c>
+      <c r="R57" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
       <c r="B58" s="12">
         <v>61</v>
       </c>
@@ -5502,10 +5664,10 @@
         <v>136</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>15</v>
@@ -5516,7 +5678,7 @@
       <c r="I58" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J58" s="62">
+      <c r="J58" s="52">
         <v>2</v>
       </c>
       <c r="K58" s="15"/>
@@ -5535,9 +5697,15 @@
       <c r="P58" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+      <c r="Q58" s="7">
+        <v>150</v>
+      </c>
+      <c r="R58" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
       <c r="B59" s="12">
         <v>64</v>
       </c>
@@ -5562,7 +5730,7 @@
       <c r="I59" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J59" s="62">
+      <c r="J59" s="52">
         <v>2</v>
       </c>
       <c r="K59" s="15"/>
@@ -5581,9 +5749,15 @@
       <c r="P59" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="Q59" s="7">
+        <v>200</v>
+      </c>
+      <c r="R59" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
       <c r="B60" s="12">
         <v>65</v>
       </c>
@@ -5594,10 +5768,10 @@
         <v>144</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>15</v>
@@ -5608,7 +5782,7 @@
       <c r="I60" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J60" s="62">
+      <c r="J60" s="52">
         <v>2</v>
       </c>
       <c r="K60" s="15"/>
@@ -5627,17 +5801,23 @@
       <c r="P60" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="Q60" s="7">
+        <v>800</v>
+      </c>
+      <c r="R60" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
       <c r="B61" s="12">
         <v>66</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="E61" s="31" t="s">
         <v>146</v>
@@ -5654,7 +5834,7 @@
       <c r="I61" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J61" s="62">
+      <c r="J61" s="52">
         <v>2</v>
       </c>
       <c r="K61" s="15"/>
@@ -5673,14 +5853,20 @@
       <c r="P61" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="Q61" s="7">
+        <v>400</v>
+      </c>
+      <c r="R61" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
       <c r="B62" s="12">
         <v>67</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>149</v>
@@ -5700,7 +5886,7 @@
       <c r="I62" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="62">
+      <c r="J62" s="52">
         <v>2</v>
       </c>
       <c r="K62" s="15"/>
@@ -5719,9 +5905,15 @@
       <c r="P62" s="7">
         <v>550</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+      <c r="Q62" s="7">
+        <v>450</v>
+      </c>
+      <c r="R62" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
       <c r="B63" s="12">
         <v>68</v>
       </c>
@@ -5729,13 +5921,13 @@
         <v>153</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>15</v>
@@ -5746,7 +5938,7 @@
       <c r="I63" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J63" s="62">
+      <c r="J63" s="52">
         <v>2</v>
       </c>
       <c r="K63" s="15"/>
@@ -5765,9 +5957,15 @@
       <c r="P63" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+      <c r="Q63" s="7">
+        <v>450</v>
+      </c>
+      <c r="R63" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
       <c r="B64" s="12">
         <v>71</v>
       </c>
@@ -5792,7 +5990,7 @@
       <c r="I64" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="62">
+      <c r="J64" s="52">
         <v>2</v>
       </c>
       <c r="K64" s="15"/>
@@ -5811,9 +6009,15 @@
       <c r="P64" s="7">
         <v>650</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+      <c r="Q64" s="7">
+        <v>400</v>
+      </c>
+      <c r="R64" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
       <c r="B65" s="12">
         <v>72</v>
       </c>
@@ -5838,7 +6042,7 @@
       <c r="I65" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J65" s="62">
+      <c r="J65" s="52">
         <v>2</v>
       </c>
       <c r="K65" s="15"/>
@@ -5857,14 +6061,20 @@
       <c r="P65" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="Q65" s="7">
+        <v>700</v>
+      </c>
+      <c r="R65" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
       <c r="B66" s="12">
         <v>73</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>165</v>
@@ -5884,7 +6094,7 @@
       <c r="I66" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J66" s="62">
+      <c r="J66" s="52">
         <v>2</v>
       </c>
       <c r="K66" s="15"/>
@@ -5903,14 +6113,20 @@
       <c r="P66" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+      <c r="Q66" s="7">
+        <v>800</v>
+      </c>
+      <c r="R66" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
       <c r="B67" s="12">
         <v>74</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>169</v>
@@ -5930,7 +6146,7 @@
       <c r="I67" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J67" s="62">
+      <c r="J67" s="52">
         <v>2</v>
       </c>
       <c r="K67" s="15"/>
@@ -5949,9 +6165,15 @@
       <c r="P67" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+      <c r="Q67" s="7">
+        <v>400</v>
+      </c>
+      <c r="R67" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
       <c r="B68" s="12">
         <v>75</v>
       </c>
@@ -5959,13 +6181,13 @@
         <v>62</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>63</v>
@@ -5976,7 +6198,7 @@
       <c r="I68" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J68" s="65">
+      <c r="J68" s="55">
         <v>2</v>
       </c>
       <c r="K68" s="35"/>
@@ -5995,9 +6217,15 @@
       <c r="P68" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="Q68" s="7">
+        <v>450</v>
+      </c>
+      <c r="R68" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="45"/>
       <c r="B69" s="12">
         <v>78</v>
       </c>
@@ -6022,7 +6250,7 @@
       <c r="I69" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="65">
+      <c r="J69" s="55">
         <v>2</v>
       </c>
       <c r="K69" s="35"/>
@@ -6041,10 +6269,16 @@
       <c r="P69" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q69" s="7">
+        <v>450</v>
+      </c>
+      <c r="R69" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B70" s="12">
         <v>79</v>
@@ -6070,7 +6304,7 @@
       <c r="I70" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J70" s="62">
+      <c r="J70" s="52">
         <v>1</v>
       </c>
       <c r="K70" s="15"/>
@@ -6089,9 +6323,11 @@
       <c r="P70" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+    </row>
+    <row r="71" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
       <c r="B71" s="12">
         <v>80</v>
       </c>
@@ -6116,7 +6352,7 @@
       <c r="I71" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J71" s="62">
+      <c r="J71" s="52">
         <v>1</v>
       </c>
       <c r="K71" s="15"/>
@@ -6135,9 +6371,11 @@
       <c r="P71" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+    </row>
+    <row r="72" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="46"/>
       <c r="B72" s="12">
         <v>81</v>
       </c>
@@ -6162,7 +6400,7 @@
       <c r="I72" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="62">
+      <c r="J72" s="52">
         <v>1</v>
       </c>
       <c r="K72" s="15"/>
@@ -6181,9 +6419,11 @@
       <c r="P72" s="7">
         <v>550</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+    </row>
+    <row r="73" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
       <c r="B73" s="12">
         <v>82</v>
       </c>
@@ -6208,7 +6448,7 @@
       <c r="I73" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J73" s="62">
+      <c r="J73" s="52">
         <v>1</v>
       </c>
       <c r="K73" s="15"/>
@@ -6227,10 +6467,12 @@
       <c r="P73" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+    </row>
+    <row r="74" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B74" s="12">
         <v>83</v>
@@ -6256,7 +6498,7 @@
       <c r="I74" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J74" s="62">
+      <c r="J74" s="52">
         <v>1</v>
       </c>
       <c r="K74" s="15"/>
@@ -6275,9 +6517,11 @@
       <c r="P74" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+    </row>
+    <row r="75" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="46"/>
       <c r="B75" s="12">
         <v>84</v>
       </c>
@@ -6302,7 +6546,7 @@
       <c r="I75" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J75" s="62">
+      <c r="J75" s="52">
         <v>1</v>
       </c>
       <c r="K75" s="15"/>
@@ -6321,9 +6565,11 @@
       <c r="P75" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+    </row>
+    <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="46"/>
       <c r="B76" s="12">
         <v>85</v>
       </c>
@@ -6348,7 +6594,7 @@
       <c r="I76" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J76" s="62">
+      <c r="J76" s="52">
         <v>1</v>
       </c>
       <c r="K76" s="15"/>
@@ -6367,9 +6613,11 @@
       <c r="P76" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+    </row>
+    <row r="77" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
       <c r="B77" s="12">
         <v>86</v>
       </c>
@@ -6380,10 +6628,10 @@
         <v>198</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>15</v>
@@ -6394,7 +6642,7 @@
       <c r="I77" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J77" s="62">
+      <c r="J77" s="52">
         <v>2</v>
       </c>
       <c r="K77" s="15" t="s">
@@ -6415,14 +6663,20 @@
       <c r="P77" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="Q77" s="7">
+        <v>700</v>
+      </c>
+      <c r="R77" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
       <c r="B78" s="12">
         <v>87</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>77</v>
@@ -6431,7 +6685,7 @@
         <v>199</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>15</v>
@@ -6442,7 +6696,7 @@
       <c r="I78" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J78" s="62">
+      <c r="J78" s="52">
         <v>2</v>
       </c>
       <c r="K78" s="15"/>
@@ -6458,17 +6712,21 @@
       <c r="O78" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="P78" s="7">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7">
+        <v>800</v>
+      </c>
+      <c r="R78" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
       <c r="B79" s="12">
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>77</v>
@@ -6488,7 +6746,7 @@
       <c r="I79" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J79" s="62">
+      <c r="J79" s="52">
         <v>2</v>
       </c>
       <c r="K79" s="15" t="s">
@@ -6507,9 +6765,11 @@
         <v>69</v>
       </c>
       <c r="P79" s="7"/>
-    </row>
-    <row r="80" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+    </row>
+    <row r="80" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
       <c r="B80" s="12">
         <v>89</v>
       </c>
@@ -6517,7 +6777,7 @@
         <v>204</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E80" s="31" t="s">
         <v>205</v>
@@ -6534,7 +6794,7 @@
       <c r="I80" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="62">
+      <c r="J80" s="52">
         <v>2</v>
       </c>
       <c r="K80" s="15"/>
@@ -6553,14 +6813,20 @@
       <c r="P80" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="Q80" s="7">
+        <v>250</v>
+      </c>
+      <c r="R80" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
       <c r="B81" s="12">
         <v>90</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>208</v>
@@ -6569,7 +6835,7 @@
         <v>209</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>15</v>
@@ -6580,7 +6846,7 @@
       <c r="I81" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J81" s="62">
+      <c r="J81" s="52">
         <v>2</v>
       </c>
       <c r="K81" s="15"/>
@@ -6599,14 +6865,20 @@
       <c r="P81" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="Q81" s="7">
+        <v>150</v>
+      </c>
+      <c r="R81" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
       <c r="B82" s="12">
         <v>91</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>211</v>
@@ -6626,7 +6898,7 @@
       <c r="I82" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J82" s="62">
+      <c r="J82" s="52">
         <v>2</v>
       </c>
       <c r="K82" s="15"/>
@@ -6645,14 +6917,20 @@
       <c r="P82" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="Q82" s="7">
+        <v>400</v>
+      </c>
+      <c r="R82" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
       <c r="B83" s="12">
         <v>92</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>215</v>
@@ -6672,7 +6950,7 @@
       <c r="I83" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J83" s="62">
+      <c r="J83" s="52">
         <v>2</v>
       </c>
       <c r="K83" s="15"/>
@@ -6691,9 +6969,15 @@
       <c r="P83" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="Q83" s="7">
+        <v>450</v>
+      </c>
+      <c r="R83" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
       <c r="B84" s="12">
         <v>93</v>
       </c>
@@ -6718,7 +7002,7 @@
       <c r="I84" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J84" s="62">
+      <c r="J84" s="52">
         <v>2</v>
       </c>
       <c r="K84" s="15"/>
@@ -6737,9 +7021,15 @@
       <c r="P84" s="7">
         <v>650</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="Q84" s="7">
+        <v>150</v>
+      </c>
+      <c r="R84" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="47"/>
       <c r="B85" s="12">
         <v>98</v>
       </c>
@@ -6753,7 +7043,7 @@
         <v>226</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>58</v>
@@ -6764,7 +7054,7 @@
       <c r="I85" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J85" s="65">
+      <c r="J85" s="55">
         <v>2</v>
       </c>
       <c r="K85" s="35" t="s">
@@ -6785,10 +7075,16 @@
       <c r="P85" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="58" t="s">
-        <v>499</v>
+      <c r="Q85" s="7">
+        <v>250</v>
+      </c>
+      <c r="R85" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="48" t="s">
+        <v>490</v>
       </c>
       <c r="B86" s="12">
         <v>99</v>
@@ -6814,7 +7110,7 @@
       <c r="I86" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J86" s="62">
+      <c r="J86" s="52">
         <v>1</v>
       </c>
       <c r="K86" s="15"/>
@@ -6833,9 +7129,11 @@
       <c r="P86" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+    </row>
+    <row r="87" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
       <c r="B87" s="12">
         <v>100</v>
       </c>
@@ -6860,7 +7158,7 @@
       <c r="I87" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="J87" s="62">
+      <c r="J87" s="52">
         <v>1</v>
       </c>
       <c r="K87" s="15"/>
@@ -6879,9 +7177,11 @@
       <c r="P87" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+    </row>
+    <row r="88" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
       <c r="B88" s="12">
         <v>101</v>
       </c>
@@ -6906,7 +7206,7 @@
       <c r="I88" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="J88" s="62">
+      <c r="J88" s="52">
         <v>1</v>
       </c>
       <c r="K88" s="15"/>
@@ -6925,9 +7225,11 @@
       <c r="P88" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+    </row>
+    <row r="89" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
       <c r="B89" s="12">
         <v>102</v>
       </c>
@@ -6935,13 +7237,13 @@
         <v>70</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>15</v>
@@ -6952,7 +7254,7 @@
       <c r="I89" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J89" s="62">
+      <c r="J89" s="52">
         <v>2</v>
       </c>
       <c r="K89" s="15" t="s">
@@ -6973,9 +7275,15 @@
       <c r="P89" s="7">
         <v>650</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="Q89" s="7">
+        <v>200</v>
+      </c>
+      <c r="R89" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
       <c r="B90" s="12">
         <v>103</v>
       </c>
@@ -6983,10 +7291,10 @@
         <v>238</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>239</v>
@@ -7000,7 +7308,7 @@
       <c r="I90" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J90" s="62">
+      <c r="J90" s="52">
         <v>2</v>
       </c>
       <c r="K90" s="15"/>
@@ -7019,9 +7327,15 @@
       <c r="P90" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="Q90" s="7">
+        <v>300</v>
+      </c>
+      <c r="R90" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
       <c r="B91" s="12">
         <v>111</v>
       </c>
@@ -7029,10 +7343,10 @@
         <v>240</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F91" s="31" t="s">
         <v>241</v>
@@ -7046,7 +7360,7 @@
       <c r="I91" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J91" s="65">
+      <c r="J91" s="55">
         <v>2</v>
       </c>
       <c r="K91" s="35" t="s">
@@ -7067,9 +7381,15 @@
       <c r="P91" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="Q91" s="7">
+        <v>100</v>
+      </c>
+      <c r="R91" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
       <c r="B92" s="12">
         <v>114</v>
       </c>
@@ -7094,7 +7414,7 @@
       <c r="I92" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J92" s="62">
+      <c r="J92" s="52">
         <v>2</v>
       </c>
       <c r="K92" s="15"/>
@@ -7113,9 +7433,15 @@
       <c r="P92" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="Q92" s="7">
+        <v>700</v>
+      </c>
+      <c r="R92" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
       <c r="B93" s="12">
         <v>115</v>
       </c>
@@ -7140,7 +7466,7 @@
       <c r="I93" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J93" s="62">
+      <c r="J93" s="52">
         <v>2</v>
       </c>
       <c r="K93" s="15"/>
@@ -7159,14 +7485,20 @@
       <c r="P93" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="Q93" s="7">
+        <v>900</v>
+      </c>
+      <c r="R93" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
       <c r="B94" s="12">
         <v>116</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>253</v>
@@ -7186,7 +7518,7 @@
       <c r="I94" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J94" s="62">
+      <c r="J94" s="52">
         <v>2</v>
       </c>
       <c r="K94" s="15"/>
@@ -7205,14 +7537,20 @@
       <c r="P94" s="7">
         <v>850</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="Q94" s="7">
+        <v>700</v>
+      </c>
+      <c r="R94" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="47"/>
       <c r="B95" s="12">
         <v>117</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D95" s="31" t="s">
         <v>257</v>
@@ -7232,7 +7570,7 @@
       <c r="I95" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J95" s="62">
+      <c r="J95" s="52">
         <v>2</v>
       </c>
       <c r="K95" s="15"/>
@@ -7251,10 +7589,16 @@
       <c r="P95" s="7">
         <v>550</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="Q95" s="7">
+        <v>550</v>
+      </c>
+      <c r="R95" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B96" s="12">
         <v>118</v>
@@ -7280,7 +7624,7 @@
       <c r="I96" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J96" s="65">
+      <c r="J96" s="55">
         <v>2</v>
       </c>
       <c r="K96" s="15"/>
@@ -7297,14 +7641,16 @@
         <v>265</v>
       </c>
       <c r="P96" s="7"/>
-    </row>
-    <row r="97" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+    </row>
+    <row r="97" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
       <c r="B97" s="12">
         <v>119</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>266</v>
@@ -7313,7 +7659,7 @@
         <v>267</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>63</v>
@@ -7324,7 +7670,7 @@
       <c r="I97" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J97" s="65">
+      <c r="J97" s="55">
         <v>2</v>
       </c>
       <c r="K97" s="15"/>
@@ -7343,14 +7689,20 @@
       <c r="P97" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="Q97" s="7">
+        <v>250</v>
+      </c>
+      <c r="R97" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
       <c r="B98" s="12">
         <v>120</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D98" s="31" t="s">
         <v>269</v>
@@ -7370,7 +7722,7 @@
       <c r="I98" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J98" s="65">
+      <c r="J98" s="55">
         <v>2</v>
       </c>
       <c r="K98" s="15"/>
@@ -7389,9 +7741,15 @@
       <c r="P98" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="Q98" s="7">
+        <v>150</v>
+      </c>
+      <c r="R98" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
       <c r="B99" s="12">
         <v>121</v>
       </c>
@@ -7416,7 +7774,7 @@
       <c r="I99" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J99" s="65">
+      <c r="J99" s="55">
         <v>2</v>
       </c>
       <c r="K99" s="15"/>
@@ -7435,9 +7793,15 @@
       <c r="P99" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
+      <c r="Q99" s="7">
+        <v>650</v>
+      </c>
+      <c r="R99" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="47"/>
       <c r="B100" s="12">
         <v>122</v>
       </c>
@@ -7462,7 +7826,7 @@
       <c r="I100" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J100" s="62">
+      <c r="J100" s="52">
         <v>1</v>
       </c>
       <c r="K100" s="15"/>
@@ -7481,10 +7845,12 @@
       <c r="P100" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+    </row>
+    <row r="101" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B101" s="12">
         <v>123</v>
@@ -7510,7 +7876,7 @@
       <c r="I101" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J101" s="62">
+      <c r="J101" s="52">
         <v>2</v>
       </c>
       <c r="K101" s="15"/>
@@ -7529,9 +7895,15 @@
       <c r="P101" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="Q101" s="7">
+        <v>100</v>
+      </c>
+      <c r="R101" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
       <c r="B102" s="12">
         <v>124</v>
       </c>
@@ -7556,7 +7928,7 @@
       <c r="I102" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J102" s="62">
+      <c r="J102" s="52">
         <v>2</v>
       </c>
       <c r="K102" s="15"/>
@@ -7575,9 +7947,15 @@
       <c r="P102" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="Q102" s="7">
+        <v>50</v>
+      </c>
+      <c r="R102" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
       <c r="B103" s="12">
         <v>125</v>
       </c>
@@ -7602,7 +7980,7 @@
       <c r="I103" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J103" s="62">
+      <c r="J103" s="52">
         <v>2</v>
       </c>
       <c r="K103" s="15"/>
@@ -7618,17 +7996,21 @@
       <c r="O103" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="P103" s="7">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7">
+        <v>150</v>
+      </c>
+      <c r="R103" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
       <c r="B104" s="12">
         <v>126</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>77</v>
@@ -7648,7 +8030,7 @@
       <c r="I104" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J104" s="62">
+      <c r="J104" s="52">
         <v>2</v>
       </c>
       <c r="K104" s="15"/>
@@ -7664,17 +8046,21 @@
       <c r="O104" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="P104" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7">
+        <v>150</v>
+      </c>
+      <c r="R104" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
       <c r="B105" s="12">
         <v>127</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>77</v>
@@ -7694,7 +8080,7 @@
       <c r="I105" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J105" s="62">
+      <c r="J105" s="52">
         <v>2</v>
       </c>
       <c r="K105" s="15"/>
@@ -7710,17 +8096,21 @@
       <c r="O105" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="P105" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7">
+        <v>650</v>
+      </c>
+      <c r="R105" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
       <c r="B106" s="12">
         <v>128</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>77</v>
@@ -7740,7 +8130,7 @@
       <c r="I106" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J106" s="62">
+      <c r="J106" s="52">
         <v>2</v>
       </c>
       <c r="K106" s="15"/>
@@ -7756,12 +8146,16 @@
       <c r="O106" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="P106" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="57">
+        <v>800</v>
+      </c>
+      <c r="R106" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
       <c r="B107" s="12">
         <v>129</v>
       </c>
@@ -7786,7 +8180,7 @@
       <c r="I107" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J107" s="62">
+      <c r="J107" s="52">
         <v>2</v>
       </c>
       <c r="K107" s="15"/>
@@ -7805,9 +8199,15 @@
       <c r="P107" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="Q107" s="7">
+        <v>450</v>
+      </c>
+      <c r="R107" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
       <c r="B108" s="12">
         <v>130</v>
       </c>
@@ -7832,7 +8232,7 @@
       <c r="I108" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J108" s="62">
+      <c r="J108" s="52">
         <v>2</v>
       </c>
       <c r="K108" s="15"/>
@@ -7851,9 +8251,15 @@
       <c r="P108" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="Q108" s="7">
+        <v>450</v>
+      </c>
+      <c r="R108" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
       <c r="B109" s="12">
         <v>131</v>
       </c>
@@ -7864,10 +8270,10 @@
         <v>77</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F109" s="34" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>15</v>
@@ -7878,7 +8284,7 @@
       <c r="I109" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J109" s="62">
+      <c r="J109" s="52">
         <v>2</v>
       </c>
       <c r="K109" s="15"/>
@@ -7895,9 +8301,11 @@
         <v>314</v>
       </c>
       <c r="P109" s="7"/>
-    </row>
-    <row r="110" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+    </row>
+    <row r="110" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="46"/>
       <c r="B110" s="12">
         <v>132</v>
       </c>
@@ -7922,7 +8330,7 @@
       <c r="I110" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J110" s="62">
+      <c r="J110" s="52">
         <v>2</v>
       </c>
       <c r="K110" s="15"/>
@@ -7941,14 +8349,20 @@
       <c r="P110" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="Q110" s="7">
+        <v>700</v>
+      </c>
+      <c r="R110" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="46"/>
       <c r="B111" s="12">
         <v>133</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D111" s="34" t="s">
         <v>318</v>
@@ -7968,7 +8382,7 @@
       <c r="I111" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J111" s="62">
+      <c r="J111" s="52">
         <v>2</v>
       </c>
       <c r="K111" s="15"/>
@@ -7987,14 +8401,20 @@
       <c r="P111" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="Q111" s="7">
+        <v>800</v>
+      </c>
+      <c r="R111" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="46"/>
       <c r="B112" s="12">
         <v>134</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D112" s="34" t="s">
         <v>321</v>
@@ -8014,7 +8434,7 @@
       <c r="I112" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J112" s="62">
+      <c r="J112" s="52">
         <v>2</v>
       </c>
       <c r="K112" s="15"/>
@@ -8033,14 +8453,20 @@
       <c r="P112" s="7">
         <v>780</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="Q112" s="7">
+        <v>550</v>
+      </c>
+      <c r="R112" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="46"/>
       <c r="B113" s="12">
         <v>135</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>324</v>
@@ -8060,7 +8486,7 @@
       <c r="I113" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J113" s="63">
+      <c r="J113" s="53">
         <v>2</v>
       </c>
       <c r="K113" s="15"/>
@@ -8079,14 +8505,20 @@
       <c r="P113" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="Q113" s="7">
+        <v>450</v>
+      </c>
+      <c r="R113" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="46"/>
       <c r="B114" s="12">
         <v>136</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D114" s="34" t="s">
         <v>327</v>
@@ -8106,7 +8538,7 @@
       <c r="I114" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J114" s="63">
+      <c r="J114" s="53">
         <v>2</v>
       </c>
       <c r="K114" s="15"/>
@@ -8125,9 +8557,15 @@
       <c r="P114" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
+      <c r="Q114" s="7">
+        <v>450</v>
+      </c>
+      <c r="R114" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="46"/>
       <c r="B115" s="12">
         <v>137</v>
       </c>
@@ -8152,7 +8590,7 @@
       <c r="I115" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J115" s="63">
+      <c r="J115" s="53">
         <v>2</v>
       </c>
       <c r="K115" s="15"/>
@@ -8169,9 +8607,11 @@
         <v>334</v>
       </c>
       <c r="P115" s="7"/>
-    </row>
-    <row r="116" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+    </row>
+    <row r="116" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="46"/>
       <c r="B116" s="12">
         <v>139</v>
       </c>
@@ -8179,13 +8619,13 @@
         <v>25</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F116" s="34" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G116" s="23" t="s">
         <v>15</v>
@@ -8196,7 +8636,7 @@
       <c r="I116" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J116" s="62">
+      <c r="J116" s="52">
         <v>2</v>
       </c>
       <c r="K116" s="15"/>
@@ -8215,23 +8655,29 @@
       <c r="P116" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
+      <c r="Q116" s="7">
+        <v>700</v>
+      </c>
+      <c r="R116" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="46"/>
       <c r="B117" s="12">
         <v>140</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G117" s="23" t="s">
         <v>15</v>
@@ -8242,7 +8688,7 @@
       <c r="I117" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J117" s="62">
+      <c r="J117" s="52">
         <v>2</v>
       </c>
       <c r="K117" s="15"/>
@@ -8261,23 +8707,29 @@
       <c r="P117" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
+      <c r="Q117" s="7">
+        <v>800</v>
+      </c>
+      <c r="R117" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="46"/>
       <c r="B118" s="12">
         <v>141</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>15</v>
@@ -8288,7 +8740,7 @@
       <c r="I118" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J118" s="62">
+      <c r="J118" s="52">
         <v>2</v>
       </c>
       <c r="K118" s="15"/>
@@ -8307,14 +8759,20 @@
       <c r="P118" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
+      <c r="Q118" s="7">
+        <v>550</v>
+      </c>
+      <c r="R118" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="46"/>
       <c r="B119" s="12">
         <v>142</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D119" s="34" t="s">
         <v>335</v>
@@ -8334,7 +8792,7 @@
       <c r="I119" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J119" s="62">
+      <c r="J119" s="52">
         <v>2</v>
       </c>
       <c r="K119" s="15"/>
@@ -8353,14 +8811,20 @@
       <c r="P119" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
+      <c r="Q119" s="7">
+        <v>200</v>
+      </c>
+      <c r="R119" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
       <c r="B120" s="12">
         <v>143</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D120" s="34" t="s">
         <v>338</v>
@@ -8380,7 +8844,7 @@
       <c r="I120" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J120" s="62">
+      <c r="J120" s="52">
         <v>2</v>
       </c>
       <c r="K120" s="15"/>
@@ -8399,9 +8863,15 @@
       <c r="P120" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
+      <c r="Q120" s="7">
+        <v>100</v>
+      </c>
+      <c r="R120" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
       <c r="B121" s="12">
         <v>144</v>
       </c>
@@ -8426,7 +8896,7 @@
       <c r="I121" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J121" s="62">
+      <c r="J121" s="52">
         <v>2</v>
       </c>
       <c r="K121" s="15" t="s">
@@ -8445,9 +8915,11 @@
         <v>32</v>
       </c>
       <c r="P121" s="7"/>
-    </row>
-    <row r="122" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+    </row>
+    <row r="122" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
       <c r="B122" s="12">
         <v>145</v>
       </c>
@@ -8472,7 +8944,7 @@
       <c r="I122" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J122" s="62">
+      <c r="J122" s="52">
         <v>2</v>
       </c>
       <c r="K122" s="15"/>
@@ -8491,9 +8963,15 @@
       <c r="P122" s="7">
         <v>850</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="Q122" s="7">
+        <v>850</v>
+      </c>
+      <c r="R122" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
       <c r="B123" s="12">
         <v>146</v>
       </c>
@@ -8518,7 +8996,7 @@
       <c r="I123" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J123" s="62">
+      <c r="J123" s="52">
         <v>2</v>
       </c>
       <c r="K123" s="15"/>
@@ -8537,14 +9015,20 @@
       <c r="P123" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="Q123" s="7">
+        <v>200</v>
+      </c>
+      <c r="R123" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="46"/>
       <c r="B124" s="12">
         <v>147</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D124" s="36" t="s">
         <v>354</v>
@@ -8564,7 +9048,7 @@
       <c r="I124" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J124" s="62">
+      <c r="J124" s="52">
         <v>2</v>
       </c>
       <c r="K124" s="15"/>
@@ -8583,14 +9067,20 @@
       <c r="P124" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
+      <c r="Q124" s="7">
+        <v>100</v>
+      </c>
+      <c r="R124" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="46"/>
       <c r="B125" s="12">
         <v>148</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D125" s="36" t="s">
         <v>358</v>
@@ -8610,7 +9100,7 @@
       <c r="I125" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="J125" s="62">
+      <c r="J125" s="52">
         <v>2</v>
       </c>
       <c r="K125" s="15"/>
@@ -8629,14 +9119,20 @@
       <c r="P125" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
+      <c r="Q125" s="7">
+        <v>700</v>
+      </c>
+      <c r="R125" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A126" s="46"/>
       <c r="B126" s="12">
         <v>149</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>77</v>
@@ -8656,7 +9152,7 @@
       <c r="I126" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J126" s="62">
+      <c r="J126" s="52">
         <v>2</v>
       </c>
       <c r="K126" s="15"/>
@@ -8673,14 +9169,16 @@
         <v>364</v>
       </c>
       <c r="P126" s="7"/>
-    </row>
-    <row r="127" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+    </row>
+    <row r="127" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="46"/>
       <c r="B127" s="12">
         <v>150</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>77</v>
@@ -8700,7 +9198,7 @@
       <c r="I127" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J127" s="62">
+      <c r="J127" s="52">
         <v>2</v>
       </c>
       <c r="K127" s="15"/>
@@ -8717,9 +9215,11 @@
         <v>367</v>
       </c>
       <c r="P127" s="7"/>
-    </row>
-    <row r="128" spans="1:16" ht="165" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+    </row>
+    <row r="128" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A128" s="46"/>
       <c r="B128" s="12">
         <v>151</v>
       </c>
@@ -8744,7 +9244,7 @@
       <c r="I128" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J128" s="65">
+      <c r="J128" s="55">
         <v>2</v>
       </c>
       <c r="K128" s="35"/>
@@ -8760,12 +9260,16 @@
       <c r="O128" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="P128" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7">
+        <v>100</v>
+      </c>
+      <c r="R128" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="47"/>
       <c r="B129" s="12">
         <v>152</v>
       </c>
@@ -8776,10 +9280,10 @@
         <v>77</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G129" s="23" t="s">
         <v>15</v>
@@ -8790,7 +9294,7 @@
       <c r="I129" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J129" s="62">
+      <c r="J129" s="52">
         <v>2</v>
       </c>
       <c r="K129" s="15"/>
@@ -8807,10 +9311,12 @@
         <v>373</v>
       </c>
       <c r="P129" s="7"/>
-    </row>
-    <row r="130" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+    </row>
+    <row r="130" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B130" s="12">
         <v>154</v>
@@ -8836,7 +9342,7 @@
       <c r="I130" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J130" s="62">
+      <c r="J130" s="52">
         <v>1</v>
       </c>
       <c r="K130" s="15" t="s">
@@ -8857,9 +9363,11 @@
       <c r="P130" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+    </row>
+    <row r="131" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="46"/>
       <c r="B131" s="12">
         <v>155</v>
       </c>
@@ -8884,7 +9392,7 @@
       <c r="I131" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J131" s="62">
+      <c r="J131" s="52">
         <v>1</v>
       </c>
       <c r="K131" s="15"/>
@@ -8903,9 +9411,11 @@
       <c r="P131" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7"/>
+    </row>
+    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="46"/>
       <c r="B132" s="12">
         <v>156</v>
       </c>
@@ -8930,7 +9440,7 @@
       <c r="I132" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J132" s="62">
+      <c r="J132" s="52">
         <v>1</v>
       </c>
       <c r="K132" s="15"/>
@@ -8949,9 +9459,11 @@
       <c r="P132" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="7"/>
+    </row>
+    <row r="133" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
       <c r="B133" s="12">
         <v>157</v>
       </c>
@@ -8976,7 +9488,7 @@
       <c r="I133" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J133" s="62">
+      <c r="J133" s="52">
         <v>1</v>
       </c>
       <c r="K133" s="15"/>
@@ -8995,9 +9507,11 @@
       <c r="P133" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
+    </row>
+    <row r="134" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="46"/>
       <c r="B134" s="12">
         <v>158</v>
       </c>
@@ -9022,7 +9536,7 @@
       <c r="I134" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J134" s="62">
+      <c r="J134" s="52">
         <v>1</v>
       </c>
       <c r="K134" s="15"/>
@@ -9041,9 +9555,11 @@
       <c r="P134" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+    </row>
+    <row r="135" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
       <c r="B135" s="12">
         <v>159</v>
       </c>
@@ -9068,7 +9584,7 @@
       <c r="I135" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J135" s="62">
+      <c r="J135" s="52">
         <v>1</v>
       </c>
       <c r="K135" s="15"/>
@@ -9087,9 +9603,11 @@
       <c r="P135" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+    </row>
+    <row r="136" spans="1:18" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="46"/>
       <c r="B136" s="12">
         <v>160</v>
       </c>
@@ -9114,7 +9632,7 @@
       <c r="I136" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J136" s="62">
+      <c r="J136" s="52">
         <v>1</v>
       </c>
       <c r="K136" s="15"/>
@@ -9133,9 +9651,11 @@
       <c r="P136" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" s="56"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+    </row>
+    <row r="137" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137" s="46"/>
       <c r="B137" s="12">
         <v>161</v>
       </c>
@@ -9160,7 +9680,7 @@
       <c r="I137" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J137" s="62">
+      <c r="J137" s="52">
         <v>2</v>
       </c>
       <c r="K137" s="15" t="s">
@@ -9181,14 +9701,20 @@
       <c r="P137" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="56"/>
+      <c r="Q137" s="7">
+        <v>600</v>
+      </c>
+      <c r="R137" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A138" s="46"/>
       <c r="B138" s="12">
         <v>162</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D138" s="34" t="s">
         <v>398</v>
@@ -9208,7 +9734,7 @@
       <c r="I138" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J138" s="62">
+      <c r="J138" s="52">
         <v>2</v>
       </c>
       <c r="K138" s="15"/>
@@ -9227,14 +9753,20 @@
       <c r="P138" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A139" s="56"/>
+      <c r="Q138" s="7">
+        <v>300</v>
+      </c>
+      <c r="R138" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A139" s="46"/>
       <c r="B139" s="12">
         <v>163</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D139" s="34" t="s">
         <v>401</v>
@@ -9254,7 +9786,7 @@
       <c r="I139" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J139" s="62">
+      <c r="J139" s="52">
         <v>2</v>
       </c>
       <c r="K139" s="15"/>
@@ -9273,14 +9805,20 @@
       <c r="P139" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
+      <c r="Q139" s="7">
+        <v>800</v>
+      </c>
+      <c r="R139" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A140" s="46"/>
       <c r="B140" s="12">
         <v>164</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D140" s="34" t="s">
         <v>404</v>
@@ -9300,7 +9838,7 @@
       <c r="I140" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J140" s="62">
+      <c r="J140" s="52">
         <v>2</v>
       </c>
       <c r="K140" s="15"/>
@@ -9319,14 +9857,20 @@
       <c r="P140" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A141" s="56"/>
+      <c r="Q140" s="7">
+        <v>900</v>
+      </c>
+      <c r="R140" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A141" s="46"/>
       <c r="B141" s="12">
         <v>165</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D141" s="34" t="s">
         <v>407</v>
@@ -9346,7 +9890,7 @@
       <c r="I141" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J141" s="62">
+      <c r="J141" s="52">
         <v>2</v>
       </c>
       <c r="K141" s="15"/>
@@ -9365,14 +9909,20 @@
       <c r="P141" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
+      <c r="Q141" s="7">
+        <v>780</v>
+      </c>
+      <c r="R141" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A142" s="46"/>
       <c r="B142" s="12">
         <v>166</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>410</v>
@@ -9392,7 +9942,7 @@
       <c r="I142" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J142" s="62">
+      <c r="J142" s="52">
         <v>2</v>
       </c>
       <c r="K142" s="15"/>
@@ -9411,9 +9961,15 @@
       <c r="P142" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
+      <c r="Q142" s="7">
+        <v>450</v>
+      </c>
+      <c r="R142" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="46"/>
       <c r="B143" s="12">
         <v>167</v>
       </c>
@@ -9438,7 +9994,7 @@
       <c r="I143" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J143" s="62">
+      <c r="J143" s="52">
         <v>2</v>
       </c>
       <c r="K143" s="15"/>
@@ -9457,14 +10013,20 @@
       <c r="P143" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
+      <c r="Q143" s="7">
+        <v>700</v>
+      </c>
+      <c r="R143" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="46"/>
       <c r="B144" s="12">
         <v>168</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D144" s="36" t="s">
         <v>416</v>
@@ -9484,7 +10046,7 @@
       <c r="I144" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J144" s="62">
+      <c r="J144" s="52">
         <v>2</v>
       </c>
       <c r="K144" s="15"/>
@@ -9503,14 +10065,20 @@
       <c r="P144" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="56"/>
+      <c r="Q144" s="7">
+        <v>800</v>
+      </c>
+      <c r="R144" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="46"/>
       <c r="B145" s="12">
         <v>169</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D145" s="36" t="s">
         <v>419</v>
@@ -9530,7 +10098,7 @@
       <c r="I145" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J145" s="62">
+      <c r="J145" s="52">
         <v>2</v>
       </c>
       <c r="K145" s="15"/>
@@ -9549,14 +10117,20 @@
       <c r="P145" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A146" s="56"/>
+      <c r="Q145" s="7">
+        <v>600</v>
+      </c>
+      <c r="R145" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A146" s="46"/>
       <c r="B146" s="12">
         <v>170</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>77</v>
@@ -9576,7 +10150,7 @@
       <c r="I146" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J146" s="62">
+      <c r="J146" s="52">
         <v>2</v>
       </c>
       <c r="K146" s="15"/>
@@ -9593,69 +10167,79 @@
         <v>424</v>
       </c>
       <c r="P146" s="7"/>
-    </row>
-    <row r="147" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="56"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+    </row>
+    <row r="147" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A147" s="46"/>
       <c r="B147" s="12">
-        <v>171</v>
-      </c>
-      <c r="C147" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="D147" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E147" s="43" t="s">
+      <c r="E147" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="F147" s="42" t="s">
-        <v>23</v>
+      <c r="F147" s="31" t="s">
+        <v>427</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I147" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="J147" s="65">
-        <v>3</v>
-      </c>
-      <c r="K147" s="35"/>
-      <c r="L147" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="I147" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J147" s="55">
+        <v>2</v>
+      </c>
+      <c r="K147" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L147" s="7">
+        <v>5020</v>
       </c>
       <c r="M147" s="7">
-        <v>625</v>
-      </c>
-      <c r="N147" s="7" t="s">
-        <v>23</v>
+        <v>5049</v>
+      </c>
+      <c r="N147" s="7">
+        <v>5127</v>
       </c>
       <c r="O147" s="16" t="s">
-        <v>427</v>
+        <v>59</v>
       </c>
       <c r="P147" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="56"/>
+      <c r="Q147" s="7">
+        <v>700</v>
+      </c>
+      <c r="R147" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="46"/>
       <c r="B148" s="12">
-        <v>172</v>
-      </c>
-      <c r="C148" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="D148" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="F148" s="28" t="s">
-        <v>23</v>
+      <c r="E148" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="G148" s="28" t="s">
         <v>15</v>
@@ -9663,679 +10247,741 @@
       <c r="H148" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I148" s="69"/>
-      <c r="J148" s="65">
-        <v>3</v>
+      <c r="I148" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J148" s="55">
+        <v>2</v>
       </c>
       <c r="K148" s="35"/>
-      <c r="L148" s="7" t="s">
+      <c r="L148" s="7">
+        <v>5021</v>
+      </c>
+      <c r="M148" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M148" s="7">
-        <v>1567</v>
       </c>
       <c r="N148" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O148" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P148" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
+    </row>
+    <row r="149" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="46"/>
+      <c r="B149" s="12">
+        <v>177</v>
+      </c>
+      <c r="C149" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="P148" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="56"/>
-      <c r="B149" s="12">
-        <v>173</v>
-      </c>
-      <c r="C149" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E149" s="31" t="s">
+      <c r="D149" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="F149" s="28" t="s">
-        <v>23</v>
+      <c r="E149" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="G149" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I149" s="69"/>
-      <c r="J149" s="65">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="I149" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J149" s="55">
+        <v>2</v>
       </c>
       <c r="K149" s="35"/>
-      <c r="L149" s="7" t="s">
+      <c r="L149" s="7">
+        <v>5022</v>
+      </c>
+      <c r="M149" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M149" s="7">
-        <v>1568</v>
       </c>
       <c r="N149" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O149" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P149" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7"/>
+    </row>
+    <row r="150" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="46"/>
+      <c r="B150" s="12">
+        <v>178</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="D150" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="P149" s="7">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="56"/>
-      <c r="B150" s="12">
-        <v>174</v>
-      </c>
-      <c r="C150" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="D150" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E150" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="F150" s="28" t="s">
-        <v>23</v>
+      <c r="E150" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="G150" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I150" s="70"/>
-      <c r="J150" s="65">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="I150" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J150" s="55">
+        <v>2</v>
       </c>
       <c r="K150" s="35"/>
-      <c r="L150" s="7" t="s">
+      <c r="L150" s="7">
+        <v>5023</v>
+      </c>
+      <c r="M150" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M150" s="7">
-        <v>5170</v>
       </c>
       <c r="N150" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O150" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P150" s="7">
+        <v>250</v>
+      </c>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
+    </row>
+    <row r="151" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A151" s="46"/>
+      <c r="B151" s="12">
+        <v>179</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D151" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J151" s="55">
+        <v>2</v>
+      </c>
+      <c r="K151" s="35"/>
+      <c r="L151" s="7">
+        <v>5024</v>
+      </c>
+      <c r="M151" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O151" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7"/>
+    </row>
+    <row r="152" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="46"/>
+      <c r="B152" s="12">
+        <v>180</v>
+      </c>
+      <c r="C152" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="P150" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A151" s="56"/>
-      <c r="B151" s="12">
-        <v>175</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D151" s="31" t="s">
+      <c r="D152" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="E151" s="31" t="s">
+      <c r="E152" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="F151" s="31" t="s">
+      <c r="F152" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="G151" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H151" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="J151" s="65">
-        <v>2</v>
-      </c>
-      <c r="K151" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="L151" s="7">
-        <v>5020</v>
-      </c>
-      <c r="M151" s="7">
-        <v>5049</v>
-      </c>
-      <c r="N151" s="7">
-        <v>5127</v>
-      </c>
-      <c r="O151" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P151" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="56"/>
-      <c r="B152" s="12">
-        <v>176</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="36" t="s">
+      <c r="G152" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J152" s="52">
+        <v>2</v>
+      </c>
+      <c r="K152" s="15"/>
+      <c r="L152" s="7">
+        <v>84</v>
+      </c>
+      <c r="M152" s="7">
+        <v>85</v>
+      </c>
+      <c r="N152" s="7">
+        <v>5128</v>
+      </c>
+      <c r="O152" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E152" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F152" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G152" s="28" t="s">
+      <c r="P152" s="7">
+        <v>500</v>
+      </c>
+      <c r="Q152" s="7">
+        <v>900</v>
+      </c>
+      <c r="R152" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="46"/>
+      <c r="B153" s="12">
+        <v>181</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E153" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="G153" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I152" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="J152" s="65">
-        <v>2</v>
-      </c>
-      <c r="K152" s="35"/>
-      <c r="L152" s="7">
-        <v>5021</v>
-      </c>
-      <c r="M152" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N152" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O152" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P152" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="56"/>
-      <c r="B153" s="12">
-        <v>177</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D153" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F153" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G153" s="28" t="s">
+      <c r="H153" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J153" s="52">
+        <v>2</v>
+      </c>
+      <c r="K153" s="15"/>
+      <c r="L153" s="7">
+        <v>86</v>
+      </c>
+      <c r="M153" s="7">
+        <v>87</v>
+      </c>
+      <c r="N153" s="7">
+        <v>5129</v>
+      </c>
+      <c r="O153" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="P153" s="7">
+        <v>600</v>
+      </c>
+      <c r="Q153" s="7">
+        <v>780</v>
+      </c>
+      <c r="R153" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="46"/>
+      <c r="B154" s="12">
+        <v>182</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E154" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="G154" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="J153" s="65">
-        <v>2</v>
-      </c>
-      <c r="K153" s="35"/>
-      <c r="L153" s="7">
-        <v>5022</v>
-      </c>
-      <c r="M153" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N153" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O153" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P153" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
-      <c r="B154" s="12">
-        <v>178</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="D154" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F154" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G154" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="J154" s="65">
-        <v>2</v>
-      </c>
-      <c r="K154" s="35"/>
+      <c r="H154" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J154" s="52">
+        <v>2</v>
+      </c>
+      <c r="K154" s="15"/>
       <c r="L154" s="7">
-        <v>5023</v>
-      </c>
-      <c r="M154" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N154" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="M154" s="7">
+        <v>89</v>
+      </c>
+      <c r="N154" s="7">
+        <v>5130</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>55</v>
+        <v>446</v>
       </c>
       <c r="P154" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A155" s="56"/>
+      <c r="Q154" s="7">
+        <v>450</v>
+      </c>
+      <c r="R154" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="46"/>
       <c r="B155" s="12">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="D155" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="E155" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E155" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="F155" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J155" s="52">
+        <v>2</v>
+      </c>
+      <c r="K155" s="15"/>
+      <c r="L155" s="7">
+        <v>90</v>
+      </c>
+      <c r="M155" s="7">
+        <v>91</v>
+      </c>
+      <c r="N155" s="7">
+        <v>5131</v>
+      </c>
+      <c r="O155" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="P155" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q155" s="7">
+        <v>700</v>
+      </c>
+      <c r="R155" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A156" s="47"/>
+      <c r="B156" s="12">
+        <v>185</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F155" s="23" t="s">
+      <c r="E156" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="F156" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J156" s="52">
+        <v>2</v>
+      </c>
+      <c r="K156" s="15"/>
+      <c r="L156" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M156" s="7">
+        <v>960</v>
+      </c>
+      <c r="N156" s="7">
+        <v>5132</v>
+      </c>
+      <c r="O156" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
+    </row>
+    <row r="157" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="B157" s="12">
+        <v>186</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D157" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="E157" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G155" s="28" t="s">
+      <c r="F157" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G157" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H155" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="23" t="s">
+      <c r="H157" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J155" s="65">
-        <v>2</v>
-      </c>
-      <c r="K155" s="35"/>
-      <c r="L155" s="7">
-        <v>5024</v>
-      </c>
-      <c r="M155" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N155" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O155" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="P155" s="7"/>
-    </row>
-    <row r="156" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="56"/>
-      <c r="B156" s="12">
-        <v>180</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="D156" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F156" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="G156" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H156" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J156" s="62">
-        <v>2</v>
-      </c>
-      <c r="K156" s="15"/>
-      <c r="L156" s="7">
-        <v>84</v>
-      </c>
-      <c r="M156" s="7">
-        <v>85</v>
-      </c>
-      <c r="N156" s="7">
-        <v>5128</v>
-      </c>
-      <c r="O156" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="P156" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
-      <c r="B157" s="12">
-        <v>181</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="F157" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="G157" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J157" s="62">
+      <c r="J157" s="52">
         <v>2</v>
       </c>
       <c r="K157" s="15"/>
       <c r="L157" s="7">
-        <v>86</v>
-      </c>
-      <c r="M157" s="7">
-        <v>87</v>
-      </c>
-      <c r="N157" s="7">
-        <v>5129</v>
+        <v>1765</v>
+      </c>
+      <c r="M157" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N157" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P157" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
+    </row>
+    <row r="158" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A158" s="49"/>
       <c r="B158" s="12">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="D158" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="E158" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J158" s="52">
+        <v>2</v>
+      </c>
+      <c r="K158" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L158" s="7">
+        <v>1767</v>
+      </c>
+      <c r="M158" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N158" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O158" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+    </row>
+    <row r="159" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A159" s="50"/>
+      <c r="B159" s="12">
+        <v>188</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J159" s="52">
+        <v>2</v>
+      </c>
+      <c r="K159" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L159" s="7">
+        <v>1769</v>
+      </c>
+      <c r="M159" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N159" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O159" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+    </row>
+    <row r="160" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B160" s="12">
+        <v>189</v>
+      </c>
+      <c r="C160" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="31" t="s">
+      <c r="D160" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="G158" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H158" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J158" s="62">
-        <v>2</v>
-      </c>
-      <c r="K158" s="15"/>
-      <c r="L158" s="7">
-        <v>88</v>
-      </c>
-      <c r="M158" s="7">
-        <v>89</v>
-      </c>
-      <c r="N158" s="7">
-        <v>5130</v>
-      </c>
-      <c r="O158" s="16" t="s">
+      <c r="E160" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="F160" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H160" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J160" s="52">
+        <v>1</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L160" s="7">
+        <v>5025</v>
+      </c>
+      <c r="M160" s="7">
+        <v>5050</v>
+      </c>
+      <c r="N160" s="7">
+        <v>5133</v>
+      </c>
+      <c r="O160" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="P158" s="7">
+      <c r="P160" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q160" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="56"/>
-      <c r="B159" s="12">
-        <v>183</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="D159" s="31" t="s">
+      <c r="R160" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A161" s="49"/>
+      <c r="B161" s="12">
+        <v>190</v>
+      </c>
+      <c r="C161" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="E159" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="F159" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="G159" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H159" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J159" s="62">
-        <v>2</v>
-      </c>
-      <c r="K159" s="15"/>
-      <c r="L159" s="7">
-        <v>90</v>
-      </c>
-      <c r="M159" s="7">
-        <v>91</v>
-      </c>
-      <c r="N159" s="7">
-        <v>5131</v>
-      </c>
-      <c r="O159" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="P159" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="57"/>
-      <c r="B160" s="12">
-        <v>185</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="D160" s="14" t="s">
+      <c r="D161" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E160" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="F160" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="G160" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H160" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J160" s="62">
-        <v>2</v>
-      </c>
-      <c r="K160" s="15"/>
-      <c r="L160" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M160" s="7">
-        <v>960</v>
-      </c>
-      <c r="N160" s="7">
-        <v>5132</v>
-      </c>
-      <c r="O160" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="P160" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A161" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="B161" s="12">
-        <v>186</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>546</v>
-      </c>
-      <c r="E161" s="14" t="s">
-        <v>77</v>
+      <c r="E161" s="34" t="s">
+        <v>541</v>
       </c>
       <c r="F161" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G161" s="45" t="s">
+      <c r="G161" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H161" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J161" s="62">
-        <v>2</v>
-      </c>
-      <c r="K161" s="15"/>
-      <c r="L161" s="7">
-        <v>1765</v>
-      </c>
-      <c r="M161" s="7" t="s">
+      <c r="I161" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J161" s="52">
+        <v>1</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="M161" s="7">
+        <v>5051</v>
       </c>
       <c r="N161" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O161" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P161" s="7">
+        <v>457</v>
+      </c>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7">
+        <v>150</v>
+      </c>
+      <c r="R161" s="7"/>
+    </row>
+    <row r="162" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A162" s="49"/>
+      <c r="B162" s="12">
+        <v>191</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="F162" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J162" s="52">
+        <v>1</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" s="7">
+        <v>5026</v>
+      </c>
+      <c r="M162" s="7">
+        <v>5052</v>
+      </c>
+      <c r="N162" s="7">
+        <v>5134</v>
+      </c>
+      <c r="O162" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="P162" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A162" s="59"/>
-      <c r="B162" s="12">
-        <v>187</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="D162" s="36" t="s">
-        <v>594</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G162" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J162" s="62">
-        <v>2</v>
-      </c>
-      <c r="K162" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L162" s="7">
-        <v>1767</v>
-      </c>
-      <c r="M162" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N162" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O162" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P162" s="7"/>
-    </row>
-    <row r="163" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A163" s="60"/>
+      <c r="Q162" s="7">
+        <v>500</v>
+      </c>
+      <c r="R162" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163" s="49"/>
       <c r="B163" s="12">
-        <v>188</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="D163" s="36" t="s">
-        <v>595</v>
+        <v>192</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>545</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>77</v>
@@ -10344,22 +10990,22 @@
         <v>77</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H163" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I163" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J163" s="62">
-        <v>2</v>
-      </c>
-      <c r="K163" s="15" t="s">
+      <c r="I163" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J163" s="52">
+        <v>1</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L163" s="7">
-        <v>1769</v>
+        <v>5027</v>
       </c>
       <c r="M163" s="7" t="s">
         <v>23</v>
@@ -10368,16 +11014,18 @@
         <v>23</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P163" s="7"/>
-    </row>
-    <row r="164" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A164" s="27" t="s">
-        <v>504</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="P163" s="7">
+        <v>250</v>
+      </c>
+      <c r="Q163" s="7"/>
+      <c r="R163" s="7"/>
+    </row>
+    <row r="164" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A164" s="49"/>
       <c r="B164" s="12">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>462</v>
@@ -10386,13 +11034,13 @@
         <v>463</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="F164" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="G164" s="12" t="s">
-        <v>63</v>
+        <v>464</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G164" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="H164" s="23" t="s">
         <v>16</v>
@@ -10400,41 +11048,45 @@
       <c r="I164" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J164" s="62">
+      <c r="J164" s="52">
         <v>1</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L164" s="7">
-        <v>5025</v>
+        <v>5028</v>
       </c>
       <c r="M164" s="7">
-        <v>5050</v>
-      </c>
-      <c r="N164" s="7">
-        <v>5133</v>
+        <v>5053</v>
+      </c>
+      <c r="N164" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="O164" s="16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P164" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A165" s="59"/>
+      <c r="Q164" s="7">
+        <v>250</v>
+      </c>
+      <c r="R164" s="7"/>
+    </row>
+    <row r="165" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A165" s="49"/>
       <c r="B165" s="12">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E165" s="34" t="s">
-        <v>550</v>
+        <v>466</v>
+      </c>
+      <c r="D165" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E165" s="36" t="s">
+        <v>468</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>77</v>
@@ -10446,49 +11098,49 @@
         <v>16</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J165" s="62">
+        <v>203</v>
+      </c>
+      <c r="J165" s="52">
         <v>1</v>
       </c>
       <c r="K165" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>23</v>
+      <c r="L165" s="7">
+        <v>5029</v>
       </c>
       <c r="M165" s="7">
-        <v>5051</v>
+        <v>5054</v>
       </c>
       <c r="N165" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O165" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="P165" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A166" s="59"/>
+        <v>469</v>
+      </c>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
+    </row>
+    <row r="166" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A166" s="49"/>
       <c r="B166" s="12">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>551</v>
+        <v>471</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="F166" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="G166" s="12" t="s">
-        <v>15</v>
+        <v>472</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G166" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="H166" s="23" t="s">
         <v>16</v>
@@ -10496,368 +11148,186 @@
       <c r="I166" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J166" s="62">
+      <c r="J166" s="52">
         <v>1</v>
       </c>
       <c r="K166" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L166" s="7">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="M166" s="7">
-        <v>5052</v>
-      </c>
-      <c r="N166" s="7">
-        <v>5134</v>
+        <v>5055</v>
+      </c>
+      <c r="N166" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="O166" s="16" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P166" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A167" s="59"/>
+        <v>800</v>
+      </c>
+      <c r="Q166" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R166" s="7"/>
+    </row>
+    <row r="167" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="49"/>
       <c r="B167" s="12">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="D167" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G167" s="12" t="s">
-        <v>15</v>
+        <v>546</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="E167" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="F167" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="H167" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J167" s="62">
+        <v>203</v>
+      </c>
+      <c r="J167" s="52">
         <v>1</v>
       </c>
       <c r="K167" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L167" s="7">
-        <v>5027</v>
-      </c>
-      <c r="M167" s="7" t="s">
-        <v>23</v>
+        <v>5031</v>
+      </c>
+      <c r="M167" s="7">
+        <v>5056</v>
       </c>
       <c r="N167" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O167" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="P167" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A168" s="59"/>
+        <v>477</v>
+      </c>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="57"/>
+      <c r="R167" s="7"/>
+    </row>
+    <row r="168" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="50"/>
       <c r="B168" s="12">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>473</v>
+        <v>478</v>
+      </c>
+      <c r="D168" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="E168" s="32" t="s">
+        <v>480</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G168" s="23" t="s">
-        <v>119</v>
+      <c r="G168" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H168" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J168" s="62">
+        <v>203</v>
+      </c>
+      <c r="J168" s="52">
         <v>1</v>
       </c>
       <c r="K168" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L168" s="7">
-        <v>5028</v>
+        <v>5032</v>
       </c>
       <c r="M168" s="7">
-        <v>5053</v>
+        <v>5057</v>
       </c>
       <c r="N168" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O168" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="P168" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A169" s="59"/>
+        <v>481</v>
+      </c>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="57"/>
+      <c r="R168" s="7"/>
+    </row>
+    <row r="169" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A169" s="50"/>
       <c r="B169" s="12">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="D169" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="E169" s="36" t="s">
-        <v>477</v>
+        <v>482</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G169" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H169" s="23" t="s">
+      <c r="G169" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H169" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J169" s="62">
+        <v>193</v>
+      </c>
+      <c r="J169" s="55">
         <v>1</v>
       </c>
       <c r="K169" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L169" s="7">
-        <v>5029</v>
-      </c>
-      <c r="M169" s="7">
-        <v>5054</v>
+        <v>5033</v>
+      </c>
+      <c r="M169" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="N169" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O169" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="P169" s="7"/>
-    </row>
-    <row r="170" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A170" s="59"/>
-      <c r="B170" s="12">
-        <v>195</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="D170" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="E170" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G170" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H170" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J170" s="62">
-        <v>1</v>
-      </c>
-      <c r="K170" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L170" s="7">
-        <v>5030</v>
-      </c>
-      <c r="M170" s="7">
-        <v>5055</v>
-      </c>
-      <c r="N170" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O170" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="P170" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="59"/>
-      <c r="B171" s="12">
-        <v>196</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="D171" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="E171" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="F171" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="G171" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H171" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I171" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J171" s="62">
-        <v>1</v>
-      </c>
-      <c r="K171" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L171" s="7">
-        <v>5031</v>
-      </c>
-      <c r="M171" s="7">
-        <v>5056</v>
-      </c>
-      <c r="N171" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O171" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="P171" s="7"/>
-    </row>
-    <row r="172" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A172" s="59"/>
-      <c r="B172" s="12">
-        <v>197</v>
-      </c>
-      <c r="C172" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="D172" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="E172" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="F172" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="G172" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I172" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="J172" s="66">
-        <v>1</v>
-      </c>
-      <c r="K172" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="L172" s="7">
-        <v>5032</v>
-      </c>
-      <c r="M172" s="7">
-        <v>5057</v>
-      </c>
-      <c r="N172" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O172" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="P172" s="7"/>
-    </row>
-    <row r="173" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A173" s="60"/>
-      <c r="B173" s="12">
-        <v>198</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="D173" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G173" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H173" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I173" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J173" s="65">
-        <v>1</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L173" s="7">
-        <v>5033</v>
-      </c>
-      <c r="M173" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N173" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O173" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="P173" s="7">
+      <c r="P169" s="7">
         <v>200</v>
       </c>
+      <c r="Q169" s="57"/>
+      <c r="R169" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I147:I150"/>
-  </mergeCells>
+  <autoFilter ref="A1:R169"/>
   <conditionalFormatting sqref="G143">
     <cfRule type="expression" dxfId="58" priority="58">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G105 G49:H49 H104:H108 G144:H146 G92:H95 H116:H121 G116:G120 G156:H163 G110:H112 G107:G109 G72:H72 G70:H70 G129:H131 G133:H133 G74:H75 G77:H84 G86:H87 G89:H90 G137:H139 G123:H125 H46:H48 G53:H67 G168:H168 G101:H103">
+  <conditionalFormatting sqref="G104:G105 G49:H49 H104:H108 G144:H146 G92:H95 H116:H121 G116:G120 G152:H159 G110:H112 G107:G109 G72:H72 G70:H70 G129:H131 G133:H133 G74:H75 G77:H84 G86:H87 G89:H90 G137:H139 G123:H125 H46:H48 G53:H67 G164:H164 G101:H103">
     <cfRule type="expression" dxfId="57" priority="59">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
@@ -10897,28 +11367,8 @@
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
+  <conditionalFormatting sqref="H147">
     <cfRule type="expression" dxfId="49" priority="50">
-      <formula>#REF!="ошибка"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H147">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>#REF!="ошибка"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H148">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>#REF!="ошибка"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H149">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>#REF!="ошибка"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H150">
-    <cfRule type="expression" dxfId="45" priority="46">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11032,97 +11482,97 @@
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H152">
+  <conditionalFormatting sqref="H148">
     <cfRule type="expression" dxfId="22" priority="23">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="E148">
     <cfRule type="expression" dxfId="21" priority="22">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
+  <conditionalFormatting sqref="F148">
     <cfRule type="expression" dxfId="20" priority="21">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
+  <conditionalFormatting sqref="E149">
     <cfRule type="expression" dxfId="19" priority="20">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="F149">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H153">
+  <conditionalFormatting sqref="H149">
     <cfRule type="expression" dxfId="17" priority="18">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G164:H164">
+  <conditionalFormatting sqref="G160:H160">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G165:H165">
+  <conditionalFormatting sqref="G161:H161">
     <cfRule type="expression" dxfId="15" priority="16">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G166:H166">
+  <conditionalFormatting sqref="G162:H162">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G167:H167">
+  <conditionalFormatting sqref="G163:H163">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G170:H171">
+  <conditionalFormatting sqref="G166:H167">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172:H172">
+  <conditionalFormatting sqref="G168:H168">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:H169">
+  <conditionalFormatting sqref="G165:H165">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
+  <conditionalFormatting sqref="E150">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
+  <conditionalFormatting sqref="F150">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H154">
+  <conditionalFormatting sqref="H150">
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
+  <conditionalFormatting sqref="E151">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
+  <conditionalFormatting sqref="F151">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H155">
+  <conditionalFormatting sqref="H151">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
@@ -11142,7 +11592,7 @@
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
+  <conditionalFormatting sqref="H169">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="ошибка"</formula>
     </cfRule>

--- a/src/main/resources/excel/statistic/dailyStatsItems.xlsx
+++ b/src/main/resources/excel/statistic/dailyStatsItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="587">
   <si>
     <t>№</t>
   </si>
@@ -249,9 +249,6 @@
     <t>DeliveryDeskCapacityPct</t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее время ожидания в очереди на обращение в одно окно </t>
-  </si>
-  <si>
     <t>х</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
   </si>
   <si>
     <t>SoldDMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объем платежей за проданные полисы ДМС </t>
   </si>
   <si>
     <t>Полученное от ИС Банка за отчетный период значение показателя DMSPaymentAmountAccepted</t>
@@ -1193,18 +1187,12 @@
     <t>DeliveryDeskAmountTotalDay</t>
   </si>
   <si>
-    <t xml:space="preserve">Выдано квитков электронной очереди в зону выдачи патента </t>
-  </si>
-  <si>
     <t>Полученное от СУО за отчетный период значение показателя DeliveryPrintedTickets</t>
   </si>
   <si>
     <t>DeliveryPrintedTickets</t>
   </si>
   <si>
-    <t xml:space="preserve">Предъявлено квитков электронной очереди в зону выдачи патента </t>
-  </si>
-  <si>
     <t>Полученное от СУО за отчетный период значение показателя DeliveryUsedTickets</t>
   </si>
   <si>
@@ -1454,9 +1442,6 @@
     <t>PerformanceSvcMMCPaymentPct</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансовый план по поступлениям за продажу полисов ДМС </t>
-  </si>
-  <si>
     <t>Выводится значение финансового плана по поступлениям за продажу полисов ДМС, рассчитанное пропорционально количеству прошедших рабочих дней от общего количества рабочих дней ММЦ в году (DMSPaymentFinancialPlan)</t>
   </si>
   <si>
@@ -1535,9 +1520,6 @@
     <t>% загрузки зоны одного окна (из расчета 3000 чел. в день)</t>
   </si>
   <si>
-    <t>% загрузки зоны выдачи(из расчета 3000 чел. в день)</t>
-  </si>
-  <si>
     <t>Полученное от СУО за отчетный период значение показателяSingleWindowQueueAvgTime</t>
   </si>
   <si>
@@ -1595,9 +1577,6 @@
     <t>Полученное от ИС Банка за отчетный период значение показателяMedPaymentAmountAccepted</t>
   </si>
   <si>
-    <t>Количество платежейза медицинские обследования</t>
-  </si>
-  <si>
     <t>Полученное от ИС Банказа дату 31 декабря прошлого года значение показателя MedPaymentQtyTotalYear</t>
   </si>
   <si>
@@ -1682,9 +1661,6 @@
     <t>Количество работодателей на момент формирования отчета,значение для текущей версии 0 (LaborExchangeEmployersAmount)</t>
   </si>
   <si>
-    <t>Поступления за продажу полисов ДМС(500 руб.)</t>
-  </si>
-  <si>
     <t>код показателя (1- только ежедневный, 2- ежедневный и ежемесячный, 3- только ежемесячный)</t>
   </si>
   <si>
@@ -1715,12 +1691,6 @@
     <t>- положительных решений по выдаче патента (по данным УФМС)</t>
   </si>
   <si>
-    <t>-с ИНН</t>
-  </si>
-  <si>
-    <t>-без ИНН</t>
-  </si>
-  <si>
     <t>- с ИНН</t>
   </si>
   <si>
@@ -1812,6 +1782,27 @@
   </si>
   <si>
     <t>Value Prev Year</t>
+  </si>
+  <si>
+    <t>Среднее время ожидания в очереди на обращение в одно окно</t>
+  </si>
+  <si>
+    <t>Объем платежей за проданные полисы ДМС</t>
+  </si>
+  <si>
+    <t>Количество платежей за медицинские обследования</t>
+  </si>
+  <si>
+    <t>Выдано квитков электронной очереди в зону выдачи патента</t>
+  </si>
+  <si>
+    <t>Предъявлено квитков электронной очереди в зону выдачи патента</t>
+  </si>
+  <si>
+    <t>Финансовый план по поступлениям за продажу полисов ДМС</t>
+  </si>
+  <si>
+    <t>Поступления за продажу полисов ДМС (500 руб.)</t>
   </si>
 </sst>
 </file>
@@ -2182,39 +2173,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2954,7 +2913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2976,7 +2937,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3003,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>8</v>
@@ -3024,15 +2985,15 @@
         <v>13</v>
       </c>
       <c r="Q1" s="57" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="R1" s="57" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -3050,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="52">
         <v>2</v>
@@ -3086,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -3098,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" s="52">
         <v>2</v>
@@ -3134,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -3146,7 +3107,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" s="52">
         <v>2</v>
@@ -3182,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -3194,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="52">
         <v>2</v>
@@ -3242,7 +3203,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="52">
         <v>2</v>
@@ -3286,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="52">
         <v>2</v>
@@ -3320,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -3332,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="52">
         <v>2</v>
@@ -3366,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -3378,7 +3339,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" s="52">
         <v>2</v>
@@ -3412,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -3424,7 +3385,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J10" s="52">
         <v>2</v>
@@ -3458,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -3470,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="52">
         <v>2</v>
@@ -3504,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -3516,7 +3477,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J12" s="52">
         <v>2</v>
@@ -3556,7 +3517,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J13" s="52">
         <v>2</v>
@@ -3590,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -3602,7 +3563,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J14" s="52">
         <v>2</v>
@@ -3636,7 +3597,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -3648,7 +3609,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J15" s="52">
         <v>2</v>
@@ -3682,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -3694,7 +3655,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J16" s="53">
         <v>2</v>
@@ -3728,7 +3689,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -3740,7 +3701,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J17" s="53">
         <v>2</v>
@@ -3786,7 +3747,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J18" s="52">
         <v>2</v>
@@ -3820,7 +3781,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3832,7 +3793,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J19" s="52">
         <v>2</v>
@@ -3866,7 +3827,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -3878,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J20" s="52">
         <v>2</v>
@@ -3924,7 +3885,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="52">
         <v>2</v>
@@ -3960,7 +3921,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -3972,7 +3933,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" s="52">
         <v>2</v>
@@ -4006,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -4018,7 +3979,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="52">
         <v>2</v>
@@ -4052,7 +4013,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -4064,7 +4025,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="52">
         <v>2</v>
@@ -4098,7 +4059,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -4110,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J25" s="52">
         <v>2</v>
@@ -4144,7 +4105,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -4156,7 +4117,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J26" s="52">
         <v>2</v>
@@ -4202,7 +4163,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J27" s="52">
         <v>2</v>
@@ -4244,7 +4205,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="52">
         <v>2</v>
@@ -4274,7 +4235,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -4286,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" s="52">
         <v>2</v>
@@ -4316,7 +4277,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -4328,7 +4289,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J30" s="52">
         <v>2</v>
@@ -4368,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J31" s="52">
         <v>2</v>
@@ -4414,7 +4375,7 @@
         <v>34</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="52">
         <v>1</v>
@@ -4456,7 +4417,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J33" s="54">
         <v>2</v>
@@ -4502,7 +4463,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="54">
         <v>2</v>
@@ -4548,7 +4509,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J35" s="52">
         <v>2</v>
@@ -4584,7 +4545,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -4596,7 +4557,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J36" s="52">
         <v>2</v>
@@ -4638,7 +4599,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J37" s="52">
         <v>2</v>
@@ -4686,7 +4647,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J38" s="52">
         <v>2</v>
@@ -4714,7 +4675,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="14"/>
@@ -4726,7 +4687,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J39" s="52">
         <v>2</v>
@@ -4754,7 +4715,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="14"/>
@@ -4766,7 +4727,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J40" s="52">
         <v>2</v>
@@ -4790,31 +4751,31 @@
     </row>
     <row r="41" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B41" s="12">
         <v>42</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="F41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="J41" s="52">
         <v>1</v>
@@ -4832,7 +4793,7 @@
         <v>23</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P41" s="7">
         <v>800</v>
@@ -4846,16 +4807,16 @@
         <v>43</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>82</v>
-      </c>
       <c r="E42" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>15</v>
@@ -4864,7 +4825,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J42" s="52">
         <v>1</v>
@@ -4880,7 +4841,7 @@
         <v>23</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P42" s="7">
         <v>500</v>
@@ -4894,16 +4855,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="31" t="s">
-        <v>85</v>
-      </c>
       <c r="E43" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>15</v>
@@ -4912,7 +4873,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J43" s="52">
         <v>1</v>
@@ -4928,7 +4889,7 @@
         <v>23</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P43" s="7">
         <v>200</v>
@@ -4942,16 +4903,16 @@
         <v>45</v>
       </c>
       <c r="C44" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="E44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>15</v>
@@ -4960,7 +4921,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J44" s="52">
         <v>1</v>
@@ -4976,7 +4937,7 @@
         <v>23</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P44" s="7">
         <v>250</v>
@@ -4990,16 +4951,16 @@
         <v>46</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>91</v>
-      </c>
       <c r="E45" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>15</v>
@@ -5008,7 +4969,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J45" s="52">
         <v>1</v>
@@ -5024,7 +4985,7 @@
         <v>23</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P45" s="7">
         <v>600</v>
@@ -5038,16 +4999,16 @@
         <v>47</v>
       </c>
       <c r="C46" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>94</v>
-      </c>
       <c r="E46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>63</v>
@@ -5056,7 +5017,7 @@
         <v>34</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" s="52">
         <v>1</v>
@@ -5072,7 +5033,7 @@
         <v>23</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P46" s="7">
         <v>800</v>
@@ -5086,16 +5047,16 @@
         <v>48</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>98</v>
-      </c>
       <c r="E47" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>63</v>
@@ -5104,7 +5065,7 @@
         <v>34</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J47" s="52">
         <v>1</v>
@@ -5120,7 +5081,7 @@
         <v>23</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P47" s="7">
         <v>900</v>
@@ -5134,16 +5095,16 @@
         <v>49</v>
       </c>
       <c r="C48" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="E48" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>63</v>
@@ -5152,7 +5113,7 @@
         <v>34</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J48" s="52">
         <v>1</v>
@@ -5168,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P48" s="7">
         <v>400</v>
@@ -5182,25 +5143,25 @@
         <v>51</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="E49" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="F49" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="G49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="J49" s="52">
         <v>2</v>
@@ -5236,17 +5197,17 @@
         <v>52</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D50" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>109</v>
-      </c>
       <c r="G50" s="23" t="s">
         <v>15</v>
       </c>
@@ -5254,7 +5215,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J50" s="52">
         <v>2</v>
@@ -5290,16 +5251,16 @@
         <v>53</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>15</v>
@@ -5308,7 +5269,7 @@
         <v>16</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J51" s="52">
         <v>2</v>
@@ -5344,17 +5305,17 @@
         <v>54</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D52" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="F52" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="32" t="s">
-        <v>113</v>
-      </c>
       <c r="G52" s="23" t="s">
         <v>15</v>
       </c>
@@ -5362,7 +5323,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J52" s="52">
         <v>2</v>
@@ -5401,13 +5362,13 @@
         <v>22</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>15</v>
@@ -5416,7 +5377,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J53" s="52">
         <v>2</v>
@@ -5448,25 +5409,25 @@
         <v>57</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="E54" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="F54" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="G54" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="H54" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="J54" s="52">
         <v>2</v>
@@ -5484,7 +5445,7 @@
         <v>5062</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P54" s="7">
         <v>400</v>
@@ -5502,17 +5463,17 @@
         <v>58</v>
       </c>
       <c r="C55" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="E55" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="F55" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>125</v>
-      </c>
       <c r="G55" s="23" t="s">
         <v>15</v>
       </c>
@@ -5520,7 +5481,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J55" s="52">
         <v>2</v>
@@ -5536,7 +5497,7 @@
         <v>5063</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P55" s="7">
         <v>700</v>
@@ -5554,17 +5515,17 @@
         <v>59</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D56" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="F56" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>129</v>
-      </c>
       <c r="G56" s="23" t="s">
         <v>15</v>
       </c>
@@ -5572,7 +5533,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J56" s="52">
         <v>2</v>
@@ -5588,7 +5549,7 @@
         <v>5064</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P56" s="7">
         <v>750</v>
@@ -5606,17 +5567,17 @@
         <v>60</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D57" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="F57" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>133</v>
-      </c>
       <c r="G57" s="23" t="s">
         <v>15</v>
       </c>
@@ -5624,7 +5585,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J57" s="52">
         <v>2</v>
@@ -5640,7 +5601,7 @@
         <v>5065</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P57" s="7">
         <v>450</v>
@@ -5658,16 +5619,16 @@
         <v>61</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="33" t="s">
-        <v>136</v>
-      </c>
       <c r="E58" s="33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>15</v>
@@ -5676,7 +5637,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J58" s="52">
         <v>2</v>
@@ -5692,7 +5653,7 @@
         <v>5066</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P58" s="7">
         <v>400</v>
@@ -5710,25 +5671,25 @@
         <v>64</v>
       </c>
       <c r="C59" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="F59" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>141</v>
-      </c>
       <c r="G59" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="J59" s="52">
         <v>2</v>
@@ -5744,7 +5705,7 @@
         <v>5067</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P59" s="7">
         <v>100</v>
@@ -5762,16 +5723,16 @@
         <v>65</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>15</v>
@@ -5780,7 +5741,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J60" s="52">
         <v>2</v>
@@ -5796,7 +5757,7 @@
         <v>5068</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P60" s="7">
         <v>150</v>
@@ -5814,16 +5775,16 @@
         <v>66</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>15</v>
@@ -5832,7 +5793,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J61" s="52">
         <v>2</v>
@@ -5848,7 +5809,7 @@
         <v>5069</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P61" s="7">
         <v>500</v>
@@ -5866,17 +5827,17 @@
         <v>67</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D62" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>151</v>
-      </c>
       <c r="G62" s="23" t="s">
         <v>15</v>
       </c>
@@ -5884,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J62" s="52">
         <v>2</v>
@@ -5900,7 +5861,7 @@
         <v>5070</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P62" s="7">
         <v>550</v>
@@ -5918,16 +5879,16 @@
         <v>68</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>15</v>
@@ -5936,7 +5897,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" s="52">
         <v>2</v>
@@ -5952,7 +5913,7 @@
         <v>5071</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P63" s="7">
         <v>600</v>
@@ -5970,25 +5931,25 @@
         <v>71</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="F64" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>158</v>
-      </c>
       <c r="G64" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="J64" s="52">
         <v>2</v>
@@ -6004,7 +5965,7 @@
         <v>5297</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P64" s="7">
         <v>650</v>
@@ -6022,17 +5983,17 @@
         <v>72</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="F65" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="G65" s="23" t="s">
         <v>15</v>
       </c>
@@ -6040,7 +6001,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J65" s="52">
         <v>2</v>
@@ -6056,7 +6017,7 @@
         <v>5072</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P65" s="7">
         <v>400</v>
@@ -6074,17 +6035,17 @@
         <v>73</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D66" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>167</v>
-      </c>
       <c r="G66" s="23" t="s">
         <v>15</v>
       </c>
@@ -6092,7 +6053,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J66" s="52">
         <v>2</v>
@@ -6108,7 +6069,7 @@
         <v>5073</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P66" s="7">
         <v>200</v>
@@ -6126,17 +6087,17 @@
         <v>74</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D67" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>171</v>
-      </c>
       <c r="G67" s="23" t="s">
         <v>15</v>
       </c>
@@ -6144,7 +6105,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J67" s="52">
         <v>2</v>
@@ -6160,7 +6121,7 @@
         <v>5074</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P67" s="7">
         <v>300</v>
@@ -6181,13 +6142,13 @@
         <v>62</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>63</v>
@@ -6196,7 +6157,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J68" s="55">
         <v>2</v>
@@ -6233,13 +6194,13 @@
         <v>65</v>
       </c>
       <c r="D69" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>173</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>175</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>63</v>
@@ -6248,7 +6209,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J69" s="55">
         <v>2</v>
@@ -6278,22 +6239,22 @@
     </row>
     <row r="70" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B70" s="12">
         <v>79</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>15</v>
@@ -6302,7 +6263,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J70" s="52">
         <v>1</v>
@@ -6318,7 +6279,7 @@
         <v>23</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P70" s="7">
         <v>900</v>
@@ -6332,16 +6293,16 @@
         <v>80</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>15</v>
@@ -6350,7 +6311,7 @@
         <v>16</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J71" s="52">
         <v>1</v>
@@ -6366,7 +6327,7 @@
         <v>23</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P71" s="7">
         <v>700</v>
@@ -6380,16 +6341,16 @@
         <v>81</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>15</v>
@@ -6398,7 +6359,7 @@
         <v>16</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J72" s="52">
         <v>1</v>
@@ -6414,7 +6375,7 @@
         <v>23</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P72" s="7">
         <v>550</v>
@@ -6428,16 +6389,16 @@
         <v>82</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G73" s="23" t="s">
         <v>15</v>
@@ -6446,7 +6407,7 @@
         <v>16</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J73" s="52">
         <v>1</v>
@@ -6462,7 +6423,7 @@
         <v>23</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P73" s="7">
         <v>150</v>
@@ -6472,31 +6433,31 @@
     </row>
     <row r="74" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B74" s="12">
         <v>83</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E74" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="23" t="s">
+      <c r="H74" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="J74" s="52">
         <v>1</v>
@@ -6512,7 +6473,7 @@
         <v>23</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P74" s="7">
         <v>250</v>
@@ -6526,25 +6487,25 @@
         <v>84</v>
       </c>
       <c r="C75" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J75" s="52">
         <v>1</v>
@@ -6560,7 +6521,7 @@
         <v>23</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P75" s="7">
         <v>150</v>
@@ -6574,16 +6535,16 @@
         <v>85</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G76" s="23" t="s">
         <v>15</v>
@@ -6592,7 +6553,7 @@
         <v>16</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J76" s="52">
         <v>1</v>
@@ -6608,7 +6569,7 @@
         <v>23</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P76" s="7">
         <v>400</v>
@@ -6625,13 +6586,13 @@
         <v>67</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>15</v>
@@ -6640,7 +6601,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J77" s="52">
         <v>2</v>
@@ -6676,16 +6637,16 @@
         <v>87</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>15</v>
@@ -6694,7 +6655,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J78" s="52">
         <v>2</v>
@@ -6710,7 +6671,7 @@
         <v>5078</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7">
@@ -6726,16 +6687,16 @@
         <v>88</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>31</v>
@@ -6744,7 +6705,7 @@
         <v>16</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J79" s="52">
         <v>2</v>
@@ -6774,25 +6735,25 @@
         <v>89</v>
       </c>
       <c r="C80" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>206</v>
-      </c>
       <c r="G80" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="J80" s="52">
         <v>2</v>
@@ -6808,7 +6769,7 @@
         <v>5079</v>
       </c>
       <c r="O80" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P80" s="7">
         <v>100</v>
@@ -6826,16 +6787,16 @@
         <v>90</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>15</v>
@@ -6844,7 +6805,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J81" s="52">
         <v>2</v>
@@ -6860,7 +6821,7 @@
         <v>5080</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P81" s="7">
         <v>50</v>
@@ -6878,17 +6839,17 @@
         <v>91</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D82" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E82" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>213</v>
-      </c>
       <c r="G82" s="23" t="s">
         <v>15</v>
       </c>
@@ -6896,7 +6857,7 @@
         <v>16</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J82" s="52">
         <v>2</v>
@@ -6912,7 +6873,7 @@
         <v>5081</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P82" s="7">
         <v>150</v>
@@ -6930,17 +6891,17 @@
         <v>92</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D83" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="31" t="s">
-        <v>217</v>
-      </c>
       <c r="G83" s="23" t="s">
         <v>15</v>
       </c>
@@ -6948,7 +6909,7 @@
         <v>16</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J83" s="52">
         <v>2</v>
@@ -6964,7 +6925,7 @@
         <v>5082</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P83" s="7">
         <v>150</v>
@@ -6982,17 +6943,17 @@
         <v>93</v>
       </c>
       <c r="C84" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="F84" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>222</v>
-      </c>
       <c r="G84" s="23" t="s">
         <v>15</v>
       </c>
@@ -7000,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J84" s="52">
         <v>2</v>
@@ -7016,7 +6977,7 @@
         <v>5083</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P84" s="7">
         <v>650</v>
@@ -7034,16 +6995,16 @@
         <v>98</v>
       </c>
       <c r="C85" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D85" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>226</v>
-      </c>
       <c r="F85" s="31" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>58</v>
@@ -7052,7 +7013,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J85" s="55">
         <v>2</v>
@@ -7070,7 +7031,7 @@
         <v>5084</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P85" s="7">
         <v>450</v>
@@ -7084,31 +7045,31 @@
     </row>
     <row r="86" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B86" s="12">
         <v>99</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F86" s="28" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="J86" s="52">
         <v>1</v>
@@ -7124,7 +7085,7 @@
         <v>23</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P86" s="7">
         <v>400</v>
@@ -7138,13 +7099,13 @@
         <v>100</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F87" s="28" t="s">
         <v>23</v>
@@ -7156,7 +7117,7 @@
         <v>16</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J87" s="52">
         <v>1</v>
@@ -7172,7 +7133,7 @@
         <v>23</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P87" s="7">
         <v>450</v>
@@ -7186,13 +7147,13 @@
         <v>101</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F88" s="28" t="s">
         <v>23</v>
@@ -7204,7 +7165,7 @@
         <v>16</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J88" s="52">
         <v>1</v>
@@ -7220,7 +7181,7 @@
         <v>23</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P88" s="7">
         <v>150</v>
@@ -7237,13 +7198,13 @@
         <v>70</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>15</v>
@@ -7252,7 +7213,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J89" s="52">
         <v>2</v>
@@ -7288,16 +7249,16 @@
         <v>103</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>15</v>
@@ -7306,7 +7267,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J90" s="52">
         <v>2</v>
@@ -7322,7 +7283,7 @@
         <v>5086</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P90" s="7">
         <v>450</v>
@@ -7340,16 +7301,16 @@
         <v>111</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>31</v>
@@ -7358,7 +7319,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J91" s="55">
         <v>2</v>
@@ -7376,7 +7337,7 @@
         <v>5087</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P91" s="7">
         <v>400</v>
@@ -7394,25 +7355,25 @@
         <v>114</v>
       </c>
       <c r="C92" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="F92" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E92" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>246</v>
-      </c>
       <c r="G92" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="J92" s="52">
         <v>2</v>
@@ -7428,7 +7389,7 @@
         <v>5088</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P92" s="7">
         <v>700</v>
@@ -7446,17 +7407,17 @@
         <v>115</v>
       </c>
       <c r="C93" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E93" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="F93" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>251</v>
-      </c>
       <c r="G93" s="23" t="s">
         <v>15</v>
       </c>
@@ -7464,7 +7425,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J93" s="52">
         <v>2</v>
@@ -7480,7 +7441,7 @@
         <v>5089</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P93" s="7">
         <v>800</v>
@@ -7498,17 +7459,17 @@
         <v>116</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D94" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="E94" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>255</v>
-      </c>
       <c r="G94" s="23" t="s">
         <v>15</v>
       </c>
@@ -7516,7 +7477,7 @@
         <v>16</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J94" s="52">
         <v>2</v>
@@ -7532,7 +7493,7 @@
         <v>5090</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P94" s="7">
         <v>850</v>
@@ -7550,17 +7511,17 @@
         <v>117</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D95" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F95" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E95" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>259</v>
-      </c>
       <c r="G95" s="23" t="s">
         <v>15</v>
       </c>
@@ -7568,7 +7529,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J95" s="52">
         <v>2</v>
@@ -7584,7 +7545,7 @@
         <v>5091</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P95" s="7">
         <v>550</v>
@@ -7598,22 +7559,22 @@
     </row>
     <row r="96" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B96" s="12">
         <v>118</v>
       </c>
       <c r="C96" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E96" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="F96" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="F96" s="31" t="s">
-        <v>264</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>63</v>
@@ -7622,7 +7583,7 @@
         <v>16</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J96" s="55">
         <v>2</v>
@@ -7638,7 +7599,7 @@
         <v>5092</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
@@ -7650,16 +7611,16 @@
         <v>119</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>63</v>
@@ -7668,7 +7629,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J97" s="55">
         <v>2</v>
@@ -7684,7 +7645,7 @@
         <v>5093</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P97" s="7">
         <v>400</v>
@@ -7702,16 +7663,16 @@
         <v>120</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D98" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F98" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F98" s="31" t="s">
-        <v>271</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>63</v>
@@ -7720,7 +7681,7 @@
         <v>34</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J98" s="55">
         <v>2</v>
@@ -7736,7 +7697,7 @@
         <v>5094</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P98" s="7">
         <v>450</v>
@@ -7754,16 +7715,16 @@
         <v>121</v>
       </c>
       <c r="C99" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="F99" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="F99" s="34" t="s">
-        <v>276</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>63</v>
@@ -7772,7 +7733,7 @@
         <v>34</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J99" s="55">
         <v>2</v>
@@ -7788,7 +7749,7 @@
         <v>5095</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P99" s="7">
         <v>450</v>
@@ -7809,13 +7770,13 @@
         <v>60</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>15</v>
@@ -7824,7 +7785,7 @@
         <v>34</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J100" s="52">
         <v>1</v>
@@ -7850,23 +7811,23 @@
     </row>
     <row r="101" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B101" s="12">
         <v>123</v>
       </c>
       <c r="C101" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="F101" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="E101" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="F101" s="34" t="s">
-        <v>283</v>
-      </c>
       <c r="G101" s="23" t="s">
         <v>15</v>
       </c>
@@ -7874,7 +7835,7 @@
         <v>16</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J101" s="52">
         <v>2</v>
@@ -7890,7 +7851,7 @@
         <v>5096</v>
       </c>
       <c r="O101" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P101" s="7">
         <v>700</v>
@@ -7908,16 +7869,16 @@
         <v>124</v>
       </c>
       <c r="C102" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="F102" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F102" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>15</v>
@@ -7926,7 +7887,7 @@
         <v>34</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J102" s="52">
         <v>2</v>
@@ -7942,7 +7903,7 @@
         <v>956</v>
       </c>
       <c r="O102" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P102" s="7">
         <v>800</v>
@@ -7960,17 +7921,17 @@
         <v>125</v>
       </c>
       <c r="C103" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="F103" s="31" t="s">
-        <v>292</v>
-      </c>
       <c r="G103" s="23" t="s">
         <v>15</v>
       </c>
@@ -7978,7 +7939,7 @@
         <v>16</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J103" s="52">
         <v>2</v>
@@ -7994,7 +7955,7 @@
         <v>5097</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7">
@@ -8010,16 +7971,16 @@
         <v>126</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>15</v>
@@ -8028,7 +7989,7 @@
         <v>16</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J104" s="52">
         <v>2</v>
@@ -8044,7 +8005,7 @@
         <v>5098</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P104" s="7"/>
       <c r="Q104" s="7">
@@ -8060,16 +8021,16 @@
         <v>127</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>15</v>
@@ -8078,7 +8039,7 @@
         <v>16</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J105" s="52">
         <v>2</v>
@@ -8094,7 +8055,7 @@
         <v>5099</v>
       </c>
       <c r="O105" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7">
@@ -8110,16 +8071,16 @@
         <v>128</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>15</v>
@@ -8128,7 +8089,7 @@
         <v>16</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J106" s="52">
         <v>2</v>
@@ -8144,7 +8105,7 @@
         <v>5100</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P106" s="7"/>
       <c r="Q106" s="57">
@@ -8160,16 +8121,16 @@
         <v>129</v>
       </c>
       <c r="C107" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E107" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="D107" s="34" t="s">
+      <c r="F107" s="34" t="s">
         <v>304</v>
-      </c>
-      <c r="E107" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>15</v>
@@ -8178,7 +8139,7 @@
         <v>34</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J107" s="52">
         <v>2</v>
@@ -8194,7 +8155,7 @@
         <v>948</v>
       </c>
       <c r="O107" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P107" s="7">
         <v>600</v>
@@ -8212,16 +8173,16 @@
         <v>130</v>
       </c>
       <c r="C108" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E108" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D108" s="34" t="s">
+      <c r="F108" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="E108" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="34" t="s">
-        <v>311</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>15</v>
@@ -8230,7 +8191,7 @@
         <v>34</v>
       </c>
       <c r="I108" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J108" s="52">
         <v>2</v>
@@ -8246,7 +8207,7 @@
         <v>5101</v>
       </c>
       <c r="O108" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P108" s="7">
         <v>150</v>
@@ -8264,16 +8225,16 @@
         <v>131</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F109" s="34" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>15</v>
@@ -8282,7 +8243,7 @@
         <v>16</v>
       </c>
       <c r="I109" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J109" s="52">
         <v>2</v>
@@ -8298,7 +8259,7 @@
         <v>5290</v>
       </c>
       <c r="O109" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
@@ -8313,13 +8274,13 @@
         <v>33</v>
       </c>
       <c r="D110" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="F110" s="34" t="s">
         <v>315</v>
-      </c>
-      <c r="E110" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="F110" s="34" t="s">
-        <v>317</v>
       </c>
       <c r="G110" s="23" t="s">
         <v>15</v>
@@ -8328,7 +8289,7 @@
         <v>34</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J110" s="52">
         <v>2</v>
@@ -8362,16 +8323,16 @@
         <v>133</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D111" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F111" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="E111" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F111" s="34" t="s">
-        <v>320</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>15</v>
@@ -8380,7 +8341,7 @@
         <v>34</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J111" s="52">
         <v>2</v>
@@ -8414,16 +8375,16 @@
         <v>134</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D112" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="34" t="s">
         <v>321</v>
-      </c>
-      <c r="E112" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>323</v>
       </c>
       <c r="G112" s="23" t="s">
         <v>15</v>
@@ -8432,7 +8393,7 @@
         <v>34</v>
       </c>
       <c r="I112" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J112" s="52">
         <v>2</v>
@@ -8466,16 +8427,16 @@
         <v>135</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D113" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="F113" s="34" t="s">
         <v>324</v>
-      </c>
-      <c r="E113" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="F113" s="34" t="s">
-        <v>326</v>
       </c>
       <c r="G113" s="23" t="s">
         <v>15</v>
@@ -8484,7 +8445,7 @@
         <v>34</v>
       </c>
       <c r="I113" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J113" s="53">
         <v>2</v>
@@ -8518,16 +8479,16 @@
         <v>136</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D114" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F114" s="34" t="s">
         <v>327</v>
-      </c>
-      <c r="E114" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="F114" s="34" t="s">
-        <v>329</v>
       </c>
       <c r="G114" s="23" t="s">
         <v>15</v>
@@ -8536,7 +8497,7 @@
         <v>34</v>
       </c>
       <c r="I114" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J114" s="53">
         <v>2</v>
@@ -8570,16 +8531,16 @@
         <v>137</v>
       </c>
       <c r="C115" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E115" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D115" s="34" t="s">
+      <c r="F115" s="34" t="s">
         <v>331</v>
-      </c>
-      <c r="E115" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="F115" s="34" t="s">
-        <v>333</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>31</v>
@@ -8588,7 +8549,7 @@
         <v>16</v>
       </c>
       <c r="I115" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J115" s="53">
         <v>2</v>
@@ -8604,7 +8565,7 @@
         <v>5291</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
@@ -8619,13 +8580,13 @@
         <v>25</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F116" s="34" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G116" s="23" t="s">
         <v>15</v>
@@ -8634,7 +8595,7 @@
         <v>16</v>
       </c>
       <c r="I116" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J116" s="52">
         <v>2</v>
@@ -8668,16 +8629,16 @@
         <v>140</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="G117" s="23" t="s">
         <v>15</v>
@@ -8686,7 +8647,7 @@
         <v>16</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J117" s="52">
         <v>2</v>
@@ -8720,16 +8681,16 @@
         <v>141</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>15</v>
@@ -8738,7 +8699,7 @@
         <v>16</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J118" s="52">
         <v>2</v>
@@ -8772,17 +8733,17 @@
         <v>142</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D119" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F119" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="E119" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="F119" s="34" t="s">
-        <v>337</v>
-      </c>
       <c r="G119" s="12" t="s">
         <v>15</v>
       </c>
@@ -8790,7 +8751,7 @@
         <v>16</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J119" s="52">
         <v>2</v>
@@ -8824,17 +8785,17 @@
         <v>143</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D120" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="F120" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="E120" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="F120" s="34" t="s">
-        <v>340</v>
-      </c>
       <c r="G120" s="12" t="s">
         <v>15</v>
       </c>
@@ -8842,7 +8803,7 @@
         <v>16</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J120" s="52">
         <v>2</v>
@@ -8876,16 +8837,16 @@
         <v>144</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="F121" s="34" t="s">
         <v>341</v>
-      </c>
-      <c r="E121" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="F121" s="34" t="s">
-        <v>343</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>31</v>
@@ -8894,7 +8855,7 @@
         <v>16</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J121" s="52">
         <v>2</v>
@@ -8924,17 +8885,17 @@
         <v>145</v>
       </c>
       <c r="C122" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E122" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="D122" s="39" t="s">
+      <c r="F122" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="E122" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="F122" s="39" t="s">
-        <v>347</v>
-      </c>
       <c r="G122" s="12" t="s">
         <v>15</v>
       </c>
@@ -8942,7 +8903,7 @@
         <v>16</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J122" s="52">
         <v>2</v>
@@ -8958,7 +8919,7 @@
         <v>5110</v>
       </c>
       <c r="O122" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P122" s="7">
         <v>850</v>
@@ -8976,16 +8937,16 @@
         <v>146</v>
       </c>
       <c r="C123" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E123" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D123" s="36" t="s">
+      <c r="F123" s="36" t="s">
         <v>350</v>
-      </c>
-      <c r="E123" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="F123" s="36" t="s">
-        <v>352</v>
       </c>
       <c r="G123" s="23" t="s">
         <v>15</v>
@@ -8994,7 +8955,7 @@
         <v>34</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J123" s="52">
         <v>2</v>
@@ -9010,7 +8971,7 @@
         <v>5111</v>
       </c>
       <c r="O123" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P123" s="7">
         <v>150</v>
@@ -9028,16 +8989,16 @@
         <v>147</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D124" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="F124" s="36" t="s">
         <v>354</v>
-      </c>
-      <c r="E124" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="F124" s="36" t="s">
-        <v>356</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>15</v>
@@ -9046,7 +9007,7 @@
         <v>34</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J124" s="52">
         <v>2</v>
@@ -9062,7 +9023,7 @@
         <v>5112</v>
       </c>
       <c r="O124" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P124" s="7">
         <v>600</v>
@@ -9080,16 +9041,16 @@
         <v>148</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D125" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F125" s="36" t="s">
         <v>358</v>
-      </c>
-      <c r="E125" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="F125" s="36" t="s">
-        <v>360</v>
       </c>
       <c r="G125" s="23" t="s">
         <v>15</v>
@@ -9098,7 +9059,7 @@
         <v>34</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J125" s="52">
         <v>2</v>
@@ -9114,7 +9075,7 @@
         <v>5113</v>
       </c>
       <c r="O125" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P125" s="7">
         <v>450</v>
@@ -9132,16 +9093,16 @@
         <v>149</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E126" s="36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>31</v>
@@ -9150,7 +9111,7 @@
         <v>16</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J126" s="52">
         <v>2</v>
@@ -9166,7 +9127,7 @@
         <v>5114</v>
       </c>
       <c r="O126" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
@@ -9178,16 +9139,16 @@
         <v>150</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>31</v>
@@ -9196,7 +9157,7 @@
         <v>16</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J127" s="52">
         <v>2</v>
@@ -9212,7 +9173,7 @@
         <v>5115</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
@@ -9224,16 +9185,16 @@
         <v>151</v>
       </c>
       <c r="C128" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F128" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E128" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="F128" s="31" t="s">
-        <v>370</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>31</v>
@@ -9242,7 +9203,7 @@
         <v>16</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J128" s="55">
         <v>2</v>
@@ -9258,7 +9219,7 @@
         <v>5116</v>
       </c>
       <c r="O128" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P128" s="7"/>
       <c r="Q128" s="7">
@@ -9274,16 +9235,16 @@
         <v>152</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="G129" s="23" t="s">
         <v>15</v>
@@ -9292,7 +9253,7 @@
         <v>16</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J129" s="52">
         <v>2</v>
@@ -9308,7 +9269,7 @@
         <v>5292</v>
       </c>
       <c r="O129" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
@@ -9316,31 +9277,31 @@
     </row>
     <row r="130" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B130" s="12">
         <v>154</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E130" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F130" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G130" s="23" t="s">
+      <c r="H130" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="H130" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="J130" s="52">
         <v>1</v>
@@ -9358,7 +9319,7 @@
         <v>23</v>
       </c>
       <c r="O130" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P130" s="7">
         <v>450</v>
@@ -9372,16 +9333,16 @@
         <v>155</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G131" s="23" t="s">
         <v>15</v>
@@ -9390,7 +9351,7 @@
         <v>16</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J131" s="52">
         <v>1</v>
@@ -9406,7 +9367,7 @@
         <v>23</v>
       </c>
       <c r="O131" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P131" s="7">
         <v>400</v>
@@ -9420,16 +9381,16 @@
         <v>156</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G132" s="23" t="s">
         <v>15</v>
@@ -9438,7 +9399,7 @@
         <v>16</v>
       </c>
       <c r="I132" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J132" s="52">
         <v>1</v>
@@ -9454,7 +9415,7 @@
         <v>23</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P132" s="7">
         <v>600</v>
@@ -9468,16 +9429,16 @@
         <v>157</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>383</v>
+        <v>583</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G133" s="23" t="s">
         <v>15</v>
@@ -9486,7 +9447,7 @@
         <v>16</v>
       </c>
       <c r="I133" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J133" s="52">
         <v>1</v>
@@ -9502,7 +9463,7 @@
         <v>23</v>
       </c>
       <c r="O133" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P133" s="7">
         <v>300</v>
@@ -9516,16 +9477,16 @@
         <v>158</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>386</v>
+        <v>584</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G134" s="23" t="s">
         <v>15</v>
@@ -9534,7 +9495,7 @@
         <v>16</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J134" s="52">
         <v>1</v>
@@ -9550,7 +9511,7 @@
         <v>23</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P134" s="7">
         <v>350</v>
@@ -9564,16 +9525,16 @@
         <v>159</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G135" s="23" t="s">
         <v>63</v>
@@ -9582,7 +9543,7 @@
         <v>34</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J135" s="52">
         <v>1</v>
@@ -9598,7 +9559,7 @@
         <v>23</v>
       </c>
       <c r="O135" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P135" s="7">
         <v>300</v>
@@ -9612,16 +9573,16 @@
         <v>160</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G136" s="23" t="s">
         <v>63</v>
@@ -9630,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J136" s="52">
         <v>1</v>
@@ -9646,7 +9607,7 @@
         <v>23</v>
       </c>
       <c r="O136" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P136" s="7">
         <v>200</v>
@@ -9663,13 +9624,13 @@
         <v>44</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E137" s="34" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G137" s="23" t="s">
         <v>15</v>
@@ -9678,7 +9639,7 @@
         <v>16</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J137" s="52">
         <v>2</v>
@@ -9714,16 +9675,16 @@
         <v>162</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D138" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F138" s="34" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G138" s="23" t="s">
         <v>15</v>
@@ -9732,7 +9693,7 @@
         <v>16</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J138" s="52">
         <v>2</v>
@@ -9766,16 +9727,16 @@
         <v>163</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D139" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F139" s="34" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G139" s="23" t="s">
         <v>15</v>
@@ -9784,7 +9745,7 @@
         <v>16</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J139" s="52">
         <v>2</v>
@@ -9818,16 +9779,16 @@
         <v>164</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D140" s="34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E140" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F140" s="34" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G140" s="23" t="s">
         <v>15</v>
@@ -9836,7 +9797,7 @@
         <v>16</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J140" s="52">
         <v>2</v>
@@ -9870,16 +9831,16 @@
         <v>165</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D141" s="34" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F141" s="34" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G141" s="23" t="s">
         <v>15</v>
@@ -9888,7 +9849,7 @@
         <v>16</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J141" s="52">
         <v>2</v>
@@ -9922,16 +9883,16 @@
         <v>166</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D142" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F142" s="34" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G142" s="23" t="s">
         <v>15</v>
@@ -9940,7 +9901,7 @@
         <v>16</v>
       </c>
       <c r="I142" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J142" s="52">
         <v>2</v>
@@ -9977,13 +9938,13 @@
         <v>40</v>
       </c>
       <c r="D143" s="40" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E143" s="40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F143" s="40" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>15</v>
@@ -9992,7 +9953,7 @@
         <v>34</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J143" s="52">
         <v>2</v>
@@ -10026,16 +9987,16 @@
         <v>168</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E144" s="36" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>15</v>
@@ -10044,7 +10005,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J144" s="52">
         <v>2</v>
@@ -10078,16 +10039,16 @@
         <v>169</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>15</v>
@@ -10096,7 +10057,7 @@
         <v>34</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J145" s="52">
         <v>2</v>
@@ -10130,16 +10091,16 @@
         <v>170</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E146" s="36" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G146" s="12" t="s">
         <v>31</v>
@@ -10148,7 +10109,7 @@
         <v>16</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J146" s="52">
         <v>2</v>
@@ -10164,7 +10125,7 @@
         <v>5126</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
@@ -10179,13 +10140,13 @@
         <v>57</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G147" s="28" t="s">
         <v>58</v>
@@ -10194,7 +10155,7 @@
         <v>16</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J147" s="55">
         <v>2</v>
@@ -10233,13 +10194,13 @@
         <v>51</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G148" s="28" t="s">
         <v>15</v>
@@ -10248,7 +10209,7 @@
         <v>34</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J148" s="55">
         <v>2</v>
@@ -10278,16 +10239,16 @@
         <v>177</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G149" s="28" t="s">
         <v>15</v>
@@ -10296,7 +10257,7 @@
         <v>16</v>
       </c>
       <c r="I149" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J149" s="55">
         <v>2</v>
@@ -10326,16 +10287,16 @@
         <v>178</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D150" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G150" s="28" t="s">
         <v>15</v>
@@ -10344,7 +10305,7 @@
         <v>16</v>
       </c>
       <c r="I150" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J150" s="55">
         <v>2</v>
@@ -10368,22 +10329,22 @@
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
     </row>
-    <row r="151" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="46"/>
       <c r="B151" s="12">
         <v>179</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E151" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G151" s="28" t="s">
         <v>31</v>
@@ -10392,7 +10353,7 @@
         <v>16</v>
       </c>
       <c r="I151" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J151" s="55">
         <v>2</v>
@@ -10420,25 +10381,25 @@
         <v>180</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G152" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="H152" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="J152" s="52">
         <v>2</v>
@@ -10454,7 +10415,7 @@
         <v>5128</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P152" s="7">
         <v>500</v>
@@ -10472,16 +10433,16 @@
         <v>181</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G153" s="23" t="s">
         <v>15</v>
@@ -10490,7 +10451,7 @@
         <v>16</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J153" s="52">
         <v>2</v>
@@ -10506,7 +10467,7 @@
         <v>5129</v>
       </c>
       <c r="O153" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P153" s="7">
         <v>600</v>
@@ -10524,16 +10485,16 @@
         <v>182</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G154" s="23" t="s">
         <v>15</v>
@@ -10542,7 +10503,7 @@
         <v>16</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J154" s="52">
         <v>2</v>
@@ -10558,7 +10519,7 @@
         <v>5130</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P154" s="7">
         <v>250</v>
@@ -10576,16 +10537,16 @@
         <v>183</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G155" s="23" t="s">
         <v>15</v>
@@ -10594,7 +10555,7 @@
         <v>16</v>
       </c>
       <c r="I155" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J155" s="52">
         <v>2</v>
@@ -10610,7 +10571,7 @@
         <v>5131</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P155" s="7">
         <v>150</v>
@@ -10628,16 +10589,16 @@
         <v>185</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F156" s="34" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G156" s="23" t="s">
         <v>15</v>
@@ -10646,7 +10607,7 @@
         <v>16</v>
       </c>
       <c r="I156" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J156" s="52">
         <v>2</v>
@@ -10662,7 +10623,7 @@
         <v>5132</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
@@ -10670,7 +10631,7 @@
     </row>
     <row r="157" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B157" s="12">
         <v>186</v>
@@ -10679,13 +10640,13 @@
         <v>72</v>
       </c>
       <c r="D157" s="36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G157" s="41" t="s">
         <v>31</v>
@@ -10694,7 +10655,7 @@
         <v>16</v>
       </c>
       <c r="I157" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J157" s="52">
         <v>2</v>
@@ -10722,16 +10683,16 @@
         <v>187</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G158" s="12" t="s">
         <v>31</v>
@@ -10740,7 +10701,7 @@
         <v>16</v>
       </c>
       <c r="I158" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J158" s="52">
         <v>2</v>
@@ -10770,16 +10731,16 @@
         <v>188</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G159" s="12" t="s">
         <v>31</v>
@@ -10788,7 +10749,7 @@
         <v>16</v>
       </c>
       <c r="I159" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J159" s="52">
         <v>2</v>
@@ -10814,22 +10775,22 @@
     </row>
     <row r="160" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B160" s="12">
         <v>189</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D160" s="34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F160" s="34" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G160" s="12" t="s">
         <v>63</v>
@@ -10838,7 +10799,7 @@
         <v>16</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J160" s="52">
         <v>1</v>
@@ -10856,7 +10817,7 @@
         <v>5133</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P160" s="7">
         <v>150</v>
@@ -10874,16 +10835,16 @@
         <v>190</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E161" s="34" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G161" s="12" t="s">
         <v>31</v>
@@ -10892,7 +10853,7 @@
         <v>16</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J161" s="52">
         <v>1</v>
@@ -10910,7 +10871,7 @@
         <v>23</v>
       </c>
       <c r="O161" s="16" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P161" s="7"/>
       <c r="Q161" s="7">
@@ -10924,16 +10885,16 @@
         <v>191</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E162" s="34" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F162" s="34" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G162" s="12" t="s">
         <v>15</v>
@@ -10942,7 +10903,7 @@
         <v>16</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J162" s="52">
         <v>1</v>
@@ -10960,7 +10921,7 @@
         <v>5134</v>
       </c>
       <c r="O162" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P162" s="7">
         <v>250</v>
@@ -10978,16 +10939,16 @@
         <v>192</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G163" s="12" t="s">
         <v>15</v>
@@ -10996,7 +10957,7 @@
         <v>16</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J163" s="52">
         <v>1</v>
@@ -11014,7 +10975,7 @@
         <v>23</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P163" s="7">
         <v>250</v>
@@ -11028,25 +10989,25 @@
         <v>193</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H164" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J164" s="52">
         <v>1</v>
@@ -11064,7 +11025,7 @@
         <v>23</v>
       </c>
       <c r="O164" s="16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P164" s="7">
         <v>150</v>
@@ -11080,16 +11041,16 @@
         <v>194</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E165" s="36" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G165" s="12" t="s">
         <v>31</v>
@@ -11098,7 +11059,7 @@
         <v>16</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J165" s="52">
         <v>1</v>
@@ -11116,7 +11077,7 @@
         <v>23</v>
       </c>
       <c r="O165" s="16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
@@ -11128,25 +11089,25 @@
         <v>195</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>470</v>
+        <v>585</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H166" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J166" s="52">
         <v>1</v>
@@ -11164,7 +11125,7 @@
         <v>23</v>
       </c>
       <c r="O166" s="16" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P166" s="7">
         <v>800</v>
@@ -11180,25 +11141,25 @@
         <v>196</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H167" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J167" s="52">
         <v>1</v>
@@ -11216,7 +11177,7 @@
         <v>23</v>
       </c>
       <c r="O167" s="16" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P167" s="7"/>
       <c r="Q167" s="57"/>
@@ -11228,16 +11189,16 @@
         <v>197</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G168" s="12" t="s">
         <v>31</v>
@@ -11246,7 +11207,7 @@
         <v>16</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J168" s="52">
         <v>1</v>
@@ -11264,7 +11225,7 @@
         <v>23</v>
       </c>
       <c r="O168" s="16" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P168" s="7"/>
       <c r="Q168" s="57"/>
@@ -11276,16 +11237,16 @@
         <v>198</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G169" s="28" t="s">
         <v>58</v>
@@ -11294,7 +11255,7 @@
         <v>16</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J169" s="55">
         <v>1</v>
@@ -11312,7 +11273,7 @@
         <v>23</v>
       </c>
       <c r="O169" s="16" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P169" s="7">
         <v>200</v>
@@ -11323,52 +11284,52 @@
   </sheetData>
   <autoFilter ref="A1:R169"/>
   <conditionalFormatting sqref="G143">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:G105 G49:H49 H104:H108 G144:H146 G92:H95 H116:H121 G116:G120 G152:H159 G110:H112 G107:G109 G72:H72 G70:H70 G129:H131 G133:H133 G74:H75 G77:H84 G86:H87 G89:H90 G137:H139 G123:H125 H46:H48 G53:H67 G164:H164 G101:H103">
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G45">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128:H128">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="45" priority="50">
       <formula>#REF!="ошибка"</formula>
     </cfRule>
   </conditionalFormatting>
